--- a/_apidocs/sam-entity-extracts-api/v1/SAM Master Extract Mapping v7.0 Sensitive File V3 Layout.xlsx
+++ b/_apidocs/sam-entity-extracts-api/v1/SAM Master Extract Mapping v7.0 Sensitive File V3 Layout.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\E04BMK-XDVCFP1\RedirAE$\jyothirmayichavali\Desktop\PI44\Iteration3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\E04BMK-XDVCFP1\RedirAE$\jyothirmayichavali\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5E1AB3-F05D-45CD-A86F-0C1130BE77A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{906CE479-7E23-4626-86A5-886E038A22E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3084" uniqueCount="925">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3084" uniqueCount="926">
   <si>
     <t>SAM DATA ELEMENT LIST</t>
   </si>
@@ -2850,6 +2850,9 @@
   </si>
   <si>
     <t>Sensitive (CUI)</t>
+  </si>
+  <si>
+    <t>Blank Spaces, formerly occupied by the MPIN</t>
   </si>
 </sst>
 </file>
@@ -3612,7 +3615,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3972,19 +3975,10 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4258,10 +4252,10 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B279" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B272" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="K288" sqref="K288:O288"/>
+      <selection pane="bottomRight" activeCell="O288" sqref="O288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.41796875" defaultRowHeight="15" customHeight="1"/>
@@ -4300,23 +4294,23 @@
       <c r="O1" s="5"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="131"/>
-      <c r="O2" s="132"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="128"/>
+      <c r="N2" s="128"/>
+      <c r="O2" s="129"/>
     </row>
     <row r="3" spans="1:26" ht="16.5" customHeight="1">
       <c r="A3" s="6" t="s">
@@ -4325,23 +4319,23 @@
       <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="133" t="s">
+      <c r="C3" s="130" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="134"/>
-      <c r="G3" s="134"/>
-      <c r="H3" s="134"/>
-      <c r="I3" s="134"/>
-      <c r="J3" s="135"/>
-      <c r="K3" s="136" t="s">
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="132"/>
+      <c r="K3" s="133" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="137"/>
-      <c r="M3" s="137"/>
-      <c r="N3" s="137"/>
-      <c r="O3" s="138"/>
+      <c r="L3" s="134"/>
+      <c r="M3" s="134"/>
+      <c r="N3" s="134"/>
+      <c r="O3" s="135"/>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" s="8" t="s">
@@ -17830,32 +17824,32 @@
       <c r="E288" s="124">
         <v>9</v>
       </c>
-      <c r="F288" s="125" t="s">
-        <v>27</v>
+      <c r="F288" s="26" t="s">
+        <v>925</v>
       </c>
       <c r="G288" s="19"/>
-      <c r="H288" s="126" t="s">
+      <c r="H288" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="I288" s="126"/>
-      <c r="J288" s="127" t="s">
+      <c r="I288" s="125"/>
+      <c r="J288" s="19" t="s">
         <v>455</v>
       </c>
-      <c r="K288" s="123" t="s">
+      <c r="K288" s="19" t="s">
         <v>924</v>
       </c>
-      <c r="L288" s="127">
+      <c r="L288" s="19">
         <v>3</v>
       </c>
-      <c r="M288" s="128" t="str">
+      <c r="M288" s="126" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="N288" s="128" t="str">
+      <c r="N288" s="126" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="O288" s="129" t="str">
+      <c r="O288" s="34" t="str">
         <f t="shared" si="11"/>
         <v>X</v>
       </c>
@@ -22356,10 +22350,10 @@
       <c r="B5" s="68" t="s">
         <v>587</v>
       </c>
-      <c r="C5" s="141" t="s">
+      <c r="C5" s="138" t="s">
         <v>588</v>
       </c>
-      <c r="D5" s="142"/>
+      <c r="D5" s="139"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5" t="s">
         <v>589</v>
@@ -22528,10 +22522,10 @@
       <c r="B10" s="69" t="s">
         <v>594</v>
       </c>
-      <c r="C10" s="143" t="s">
+      <c r="C10" s="140" t="s">
         <v>595</v>
       </c>
-      <c r="D10" s="144"/>
+      <c r="D10" s="141"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
         <v>596</v>
@@ -22702,10 +22696,10 @@
       <c r="B15" s="69" t="s">
         <v>600</v>
       </c>
-      <c r="C15" s="143" t="s">
+      <c r="C15" s="140" t="s">
         <v>601</v>
       </c>
-      <c r="D15" s="144"/>
+      <c r="D15" s="141"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
@@ -22878,10 +22872,10 @@
       <c r="B20" s="69" t="s">
         <v>607</v>
       </c>
-      <c r="C20" s="143" t="s">
+      <c r="C20" s="140" t="s">
         <v>608</v>
       </c>
-      <c r="D20" s="144"/>
+      <c r="D20" s="141"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5" t="s">
         <v>609</v>
@@ -23052,10 +23046,10 @@
       <c r="B25" s="69" t="s">
         <v>613</v>
       </c>
-      <c r="C25" s="143" t="s">
+      <c r="C25" s="140" t="s">
         <v>614</v>
       </c>
-      <c r="D25" s="144"/>
+      <c r="D25" s="141"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5" t="s">
         <v>615</v>
@@ -26914,13 +26908,13 @@
     <row r="148" spans="1:26" ht="12.75" customHeight="1">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
-      <c r="C148" s="139" t="s">
+      <c r="C148" s="136" t="s">
         <v>812</v>
       </c>
-      <c r="D148" s="140"/>
-      <c r="E148" s="140"/>
-      <c r="F148" s="140"/>
-      <c r="G148" s="140"/>
+      <c r="D148" s="137"/>
+      <c r="E148" s="137"/>
+      <c r="F148" s="137"/>
+      <c r="G148" s="137"/>
       <c r="H148" s="5"/>
       <c r="I148" s="5"/>
       <c r="J148" s="5"/>
@@ -26944,13 +26938,13 @@
     <row r="149" spans="1:26" ht="75.75" customHeight="1">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
-      <c r="C149" s="139" t="s">
+      <c r="C149" s="136" t="s">
         <v>813</v>
       </c>
-      <c r="D149" s="140"/>
-      <c r="E149" s="140"/>
-      <c r="F149" s="140"/>
-      <c r="G149" s="140"/>
+      <c r="D149" s="137"/>
+      <c r="E149" s="137"/>
+      <c r="F149" s="137"/>
+      <c r="G149" s="137"/>
       <c r="H149" s="5"/>
       <c r="I149" s="5"/>
       <c r="J149" s="5"/>
@@ -28109,7 +28103,7 @@
       </c>
       <c r="F185" s="106"/>
       <c r="G185" s="5"/>
-      <c r="H185" s="139" t="s">
+      <c r="H185" s="136" t="s">
         <v>852</v>
       </c>
       <c r="I185" s="5"/>
@@ -28147,7 +28141,7 @@
       </c>
       <c r="F186" s="106"/>
       <c r="G186" s="5"/>
-      <c r="H186" s="140"/>
+      <c r="H186" s="137"/>
       <c r="I186" s="5"/>
       <c r="J186" s="5"/>
       <c r="K186" s="5"/>

--- a/_apidocs/sam-entity-extracts-api/v1/SAM Master Extract Mapping v7.0 Sensitive File V3 Layout.xlsx
+++ b/_apidocs/sam-entity-extracts-api/v1/SAM Master Extract Mapping v7.0 Sensitive File V3 Layout.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\E04BMK-XDVCFP1\RedirAE$\jyothirmayichavali\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\E04TCK-XDVCFP1\RedirAE$\jyothirmayichavali\Desktop\PI44\IterationIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{906CE479-7E23-4626-86A5-886E038A22E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72594F2-5E45-4AE1-99B4-B5C5DA2848EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3084" uniqueCount="926">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3082" uniqueCount="925">
   <si>
     <t>SAM DATA ELEMENT LIST</t>
   </si>
@@ -1431,9 +1431,6 @@
   </si>
   <si>
     <t>ACCOUNTS PAYABLE POC EMAIL</t>
-  </si>
-  <si>
-    <t>12345A789</t>
   </si>
   <si>
     <t>NAICS EXCEPTION COUNTER</t>
@@ -3615,7 +3612,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3978,7 +3975,13 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4252,10 +4255,10 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B272" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="I273" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="O288" sqref="O288"/>
+      <selection pane="bottomRight" activeCell="K283" sqref="K283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.41796875" defaultRowHeight="15" customHeight="1"/>
@@ -4294,23 +4297,23 @@
       <c r="O1" s="5"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="128"/>
-      <c r="G2" s="128"/>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
-      <c r="L2" s="128"/>
-      <c r="M2" s="128"/>
-      <c r="N2" s="128"/>
-      <c r="O2" s="129"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="130"/>
+      <c r="K2" s="130"/>
+      <c r="L2" s="130"/>
+      <c r="M2" s="130"/>
+      <c r="N2" s="130"/>
+      <c r="O2" s="131"/>
     </row>
     <row r="3" spans="1:26" ht="16.5" customHeight="1">
       <c r="A3" s="6" t="s">
@@ -4319,23 +4322,23 @@
       <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="130" t="s">
+      <c r="C3" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="132"/>
-      <c r="K3" s="133" t="s">
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="133"/>
+      <c r="H3" s="133"/>
+      <c r="I3" s="133"/>
+      <c r="J3" s="134"/>
+      <c r="K3" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="134"/>
-      <c r="M3" s="134"/>
-      <c r="N3" s="134"/>
-      <c r="O3" s="135"/>
+      <c r="L3" s="136"/>
+      <c r="M3" s="136"/>
+      <c r="N3" s="136"/>
+      <c r="O3" s="137"/>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" s="8" t="s">
@@ -4378,10 +4381,10 @@
         <v>16</v>
       </c>
       <c r="N4" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="O4" s="15" t="s">
         <v>923</v>
-      </c>
-      <c r="O4" s="15" t="s">
-        <v>924</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
@@ -5637,7 +5640,7 @@
         <v>94</v>
       </c>
       <c r="K31" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L31" s="19">
         <v>2</v>
@@ -5685,7 +5688,7 @@
         <v>94</v>
       </c>
       <c r="K32" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L32" s="19">
         <v>2</v>
@@ -6018,7 +6021,7 @@
         <v>1</v>
       </c>
       <c r="K39" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L39" s="19">
         <v>2</v>
@@ -7247,7 +7250,7 @@
         <v>171</v>
       </c>
       <c r="K65" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L65" s="19">
         <f t="shared" si="3"/>
@@ -7294,7 +7297,7 @@
         <v>173</v>
       </c>
       <c r="K66" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L66" s="19">
         <f t="shared" si="3"/>
@@ -7343,7 +7346,7 @@
         <v>176</v>
       </c>
       <c r="K67" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L67" s="19">
         <f t="shared" si="3"/>
@@ -7390,7 +7393,7 @@
         <v>178</v>
       </c>
       <c r="K68" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L68" s="19">
         <f t="shared" si="3"/>
@@ -7437,7 +7440,7 @@
         <v>180</v>
       </c>
       <c r="K69" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L69" s="19">
         <f t="shared" si="3"/>
@@ -8007,7 +8010,7 @@
         <v>171</v>
       </c>
       <c r="K81" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L81" s="19">
         <f t="shared" si="3"/>
@@ -8054,7 +8057,7 @@
         <v>173</v>
       </c>
       <c r="K82" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L82" s="19">
         <f t="shared" si="3"/>
@@ -8103,7 +8106,7 @@
         <v>176</v>
       </c>
       <c r="K83" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L83" s="19">
         <f t="shared" si="3"/>
@@ -8150,7 +8153,7 @@
         <v>178</v>
       </c>
       <c r="K84" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L84" s="19">
         <f t="shared" si="3"/>
@@ -8197,7 +8200,7 @@
         <v>180</v>
       </c>
       <c r="K85" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L85" s="19">
         <f t="shared" si="3"/>
@@ -8767,7 +8770,7 @@
         <v>171</v>
       </c>
       <c r="K97" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L97" s="19">
         <f t="shared" si="4"/>
@@ -8814,7 +8817,7 @@
         <v>173</v>
       </c>
       <c r="K98" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L98" s="19">
         <f t="shared" si="4"/>
@@ -8863,7 +8866,7 @@
         <v>176</v>
       </c>
       <c r="K99" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L99" s="19">
         <f t="shared" si="4"/>
@@ -8910,7 +8913,7 @@
         <v>178</v>
       </c>
       <c r="K100" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L100" s="19">
         <f t="shared" si="4"/>
@@ -8957,7 +8960,7 @@
         <v>180</v>
       </c>
       <c r="K101" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L101" s="19">
         <f t="shared" si="4"/>
@@ -9527,7 +9530,7 @@
         <v>171</v>
       </c>
       <c r="K113" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L113" s="19">
         <f t="shared" si="4"/>
@@ -9574,7 +9577,7 @@
         <v>173</v>
       </c>
       <c r="K114" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L114" s="19">
         <f t="shared" si="4"/>
@@ -9623,7 +9626,7 @@
         <v>176</v>
       </c>
       <c r="K115" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L115" s="19">
         <f t="shared" si="4"/>
@@ -9670,7 +9673,7 @@
         <v>178</v>
       </c>
       <c r="K116" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L116" s="19">
         <f t="shared" si="4"/>
@@ -9717,7 +9720,7 @@
         <v>180</v>
       </c>
       <c r="K117" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L117" s="19">
         <f t="shared" si="4"/>
@@ -10287,7 +10290,7 @@
         <v>171</v>
       </c>
       <c r="K129" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L129" s="19">
         <f t="shared" si="5"/>
@@ -10334,7 +10337,7 @@
         <v>173</v>
       </c>
       <c r="K130" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L130" s="19">
         <f t="shared" si="5"/>
@@ -10383,7 +10386,7 @@
         <v>176</v>
       </c>
       <c r="K131" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L131" s="19">
         <f t="shared" si="5"/>
@@ -10430,7 +10433,7 @@
         <v>178</v>
       </c>
       <c r="K132" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L132" s="19">
         <f t="shared" si="5"/>
@@ -10477,7 +10480,7 @@
         <v>180</v>
       </c>
       <c r="K133" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L133" s="19">
         <f t="shared" si="5"/>
@@ -11047,7 +11050,7 @@
         <v>171</v>
       </c>
       <c r="K145" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L145" s="19">
         <f t="shared" si="5"/>
@@ -11094,7 +11097,7 @@
         <v>173</v>
       </c>
       <c r="K146" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L146" s="19">
         <f t="shared" si="5"/>
@@ -11143,7 +11146,7 @@
         <v>176</v>
       </c>
       <c r="K147" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L147" s="19">
         <f t="shared" si="5"/>
@@ -11190,7 +11193,7 @@
         <v>178</v>
       </c>
       <c r="K148" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L148" s="19">
         <f t="shared" si="5"/>
@@ -11237,7 +11240,7 @@
         <v>180</v>
       </c>
       <c r="K149" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L149" s="19">
         <f t="shared" si="5"/>
@@ -11284,7 +11287,7 @@
         <v>151</v>
       </c>
       <c r="K150" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L150" s="19">
         <f t="shared" ref="L150:L181" si="6">IF(K150="Public",1,IF(K150="FOUO (CUI)",2,IF(K150="Sensitive (CUI)",3,IF(K150="System-Only",4))))</f>
@@ -11331,7 +11334,7 @@
         <v>40</v>
       </c>
       <c r="K151" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L151" s="19">
         <f t="shared" si="6"/>
@@ -11378,7 +11381,7 @@
         <v>154</v>
       </c>
       <c r="K152" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L152" s="19">
         <f t="shared" si="6"/>
@@ -11425,7 +11428,7 @@
         <v>156</v>
       </c>
       <c r="K153" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L153" s="19">
         <f t="shared" si="6"/>
@@ -11472,7 +11475,7 @@
         <v>158</v>
       </c>
       <c r="K154" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L154" s="19">
         <f t="shared" si="6"/>
@@ -11519,7 +11522,7 @@
         <v>160</v>
       </c>
       <c r="K155" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L155" s="19">
         <f t="shared" si="6"/>
@@ -11566,7 +11569,7 @@
         <v>162</v>
       </c>
       <c r="K156" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L156" s="19">
         <f t="shared" si="6"/>
@@ -11615,7 +11618,7 @@
         <v>164</v>
       </c>
       <c r="K157" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L157" s="19">
         <f t="shared" si="6"/>
@@ -11662,7 +11665,7 @@
         <v>166</v>
       </c>
       <c r="K158" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L158" s="19">
         <f t="shared" si="6"/>
@@ -11709,7 +11712,7 @@
         <v>81</v>
       </c>
       <c r="K159" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L159" s="19">
         <f t="shared" si="6"/>
@@ -11758,7 +11761,7 @@
         <v>169</v>
       </c>
       <c r="K160" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L160" s="19">
         <f t="shared" si="6"/>
@@ -11807,7 +11810,7 @@
         <v>171</v>
       </c>
       <c r="K161" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L161" s="19">
         <f t="shared" si="6"/>
@@ -11854,7 +11857,7 @@
         <v>173</v>
       </c>
       <c r="K162" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L162" s="19">
         <f t="shared" si="6"/>
@@ -11903,7 +11906,7 @@
         <v>176</v>
       </c>
       <c r="K163" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L163" s="19">
         <f t="shared" si="6"/>
@@ -11950,7 +11953,7 @@
         <v>178</v>
       </c>
       <c r="K164" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L164" s="19">
         <f t="shared" si="6"/>
@@ -11997,7 +12000,7 @@
         <v>180</v>
       </c>
       <c r="K165" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L165" s="19">
         <f t="shared" si="6"/>
@@ -12044,7 +12047,7 @@
         <v>151</v>
       </c>
       <c r="K166" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L166" s="19">
         <f t="shared" si="6"/>
@@ -12091,7 +12094,7 @@
         <v>40</v>
       </c>
       <c r="K167" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L167" s="19">
         <f t="shared" si="6"/>
@@ -12138,7 +12141,7 @@
         <v>154</v>
       </c>
       <c r="K168" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L168" s="19">
         <f t="shared" si="6"/>
@@ -12185,7 +12188,7 @@
         <v>156</v>
       </c>
       <c r="K169" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L169" s="19">
         <f t="shared" si="6"/>
@@ -12234,7 +12237,7 @@
         <v>171</v>
       </c>
       <c r="K170" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L170" s="19">
         <f t="shared" si="6"/>
@@ -12281,7 +12284,7 @@
         <v>173</v>
       </c>
       <c r="K171" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L171" s="19">
         <f t="shared" si="6"/>
@@ -12330,7 +12333,7 @@
         <v>176</v>
       </c>
       <c r="K172" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L172" s="19">
         <f t="shared" si="6"/>
@@ -12377,7 +12380,7 @@
         <v>178</v>
       </c>
       <c r="K173" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L173" s="19">
         <f t="shared" si="6"/>
@@ -12424,7 +12427,7 @@
         <v>180</v>
       </c>
       <c r="K174" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L174" s="19">
         <f t="shared" si="6"/>
@@ -12471,7 +12474,7 @@
         <v>288</v>
       </c>
       <c r="K175" s="43" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L175" s="41">
         <f t="shared" si="6"/>
@@ -12518,7 +12521,7 @@
         <v>291</v>
       </c>
       <c r="K176" s="43" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L176" s="41">
         <f t="shared" si="6"/>
@@ -12565,7 +12568,7 @@
         <v>66</v>
       </c>
       <c r="K177" s="43" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L177" s="41">
         <f t="shared" si="6"/>
@@ -12612,7 +12615,7 @@
         <v>68</v>
       </c>
       <c r="K178" s="43" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L178" s="41">
         <f t="shared" si="6"/>
@@ -12659,7 +12662,7 @@
         <v>70</v>
       </c>
       <c r="K179" s="43" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L179" s="41">
         <f t="shared" si="6"/>
@@ -12706,7 +12709,7 @@
         <v>300</v>
       </c>
       <c r="K180" s="43" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L180" s="41">
         <f t="shared" si="6"/>
@@ -12753,7 +12756,7 @@
         <v>81</v>
       </c>
       <c r="K181" s="43" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L181" s="41">
         <f t="shared" si="6"/>
@@ -12800,7 +12803,7 @@
         <v>73</v>
       </c>
       <c r="K182" s="43" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L182" s="41">
         <f t="shared" ref="L182:L213" si="7">IF(K182="Public",1,IF(K182="FOUO (CUI)",2,IF(K182="Sensitive (CUI)",3,IF(K182="System-Only",4))))</f>
@@ -12847,7 +12850,7 @@
         <v>307</v>
       </c>
       <c r="K183" s="43" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L183" s="41">
         <f t="shared" si="7"/>
@@ -12896,7 +12899,7 @@
         <v>288</v>
       </c>
       <c r="K184" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L184" s="19">
         <f t="shared" si="7"/>
@@ -12945,7 +12948,7 @@
         <v>291</v>
       </c>
       <c r="K185" s="43" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L185" s="41">
         <f t="shared" si="7"/>
@@ -12990,7 +12993,7 @@
         <v>313</v>
       </c>
       <c r="K186" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L186" s="19">
         <f t="shared" si="7"/>
@@ -13039,7 +13042,7 @@
         <v>66</v>
       </c>
       <c r="K187" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L187" s="19">
         <f t="shared" si="7"/>
@@ -13088,7 +13091,7 @@
         <v>68</v>
       </c>
       <c r="K188" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L188" s="19">
         <f t="shared" si="7"/>
@@ -13137,7 +13140,7 @@
         <v>70</v>
       </c>
       <c r="K189" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L189" s="19">
         <f t="shared" si="7"/>
@@ -13186,7 +13189,7 @@
         <v>300</v>
       </c>
       <c r="K190" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L190" s="19">
         <f t="shared" si="7"/>
@@ -13235,7 +13238,7 @@
         <v>81</v>
       </c>
       <c r="K191" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L191" s="19">
         <f t="shared" si="7"/>
@@ -13284,7 +13287,7 @@
         <v>73</v>
       </c>
       <c r="K192" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L192" s="19">
         <f t="shared" si="7"/>
@@ -13333,7 +13336,7 @@
         <v>307</v>
       </c>
       <c r="K193" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L193" s="19">
         <f t="shared" si="7"/>
@@ -13382,7 +13385,7 @@
         <v>288</v>
       </c>
       <c r="K194" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L194" s="19">
         <f t="shared" si="7"/>
@@ -13431,7 +13434,7 @@
         <v>291</v>
       </c>
       <c r="K195" s="43" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L195" s="41">
         <f t="shared" si="7"/>
@@ -13476,7 +13479,7 @@
         <v>313</v>
       </c>
       <c r="K196" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L196" s="19">
         <f t="shared" si="7"/>
@@ -13525,7 +13528,7 @@
         <v>66</v>
       </c>
       <c r="K197" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L197" s="19">
         <f t="shared" si="7"/>
@@ -13574,7 +13577,7 @@
         <v>68</v>
       </c>
       <c r="K198" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L198" s="19">
         <f t="shared" si="7"/>
@@ -13623,7 +13626,7 @@
         <v>70</v>
       </c>
       <c r="K199" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L199" s="19">
         <f t="shared" si="7"/>
@@ -13672,7 +13675,7 @@
         <v>300</v>
       </c>
       <c r="K200" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L200" s="19">
         <f t="shared" si="7"/>
@@ -13721,7 +13724,7 @@
         <v>81</v>
       </c>
       <c r="K201" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L201" s="19">
         <f t="shared" si="7"/>
@@ -13770,7 +13773,7 @@
         <v>73</v>
       </c>
       <c r="K202" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L202" s="19">
         <f t="shared" si="7"/>
@@ -13819,7 +13822,7 @@
         <v>307</v>
       </c>
       <c r="K203" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L203" s="19">
         <f t="shared" si="7"/>
@@ -13868,7 +13871,7 @@
         <v>288</v>
       </c>
       <c r="K204" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L204" s="19">
         <f t="shared" si="7"/>
@@ -13917,7 +13920,7 @@
         <v>291</v>
       </c>
       <c r="K205" s="43" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L205" s="41">
         <f t="shared" si="7"/>
@@ -13962,7 +13965,7 @@
         <v>313</v>
       </c>
       <c r="K206" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L206" s="19">
         <f t="shared" si="7"/>
@@ -14011,7 +14014,7 @@
         <v>66</v>
       </c>
       <c r="K207" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L207" s="19">
         <f t="shared" si="7"/>
@@ -14060,7 +14063,7 @@
         <v>68</v>
       </c>
       <c r="K208" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L208" s="19">
         <f t="shared" si="7"/>
@@ -14109,7 +14112,7 @@
         <v>70</v>
       </c>
       <c r="K209" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L209" s="19">
         <f t="shared" si="7"/>
@@ -14158,7 +14161,7 @@
         <v>300</v>
       </c>
       <c r="K210" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L210" s="19">
         <f t="shared" si="7"/>
@@ -14207,7 +14210,7 @@
         <v>81</v>
       </c>
       <c r="K211" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L211" s="19">
         <f t="shared" si="7"/>
@@ -14256,7 +14259,7 @@
         <v>73</v>
       </c>
       <c r="K212" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L212" s="19">
         <f t="shared" si="7"/>
@@ -14305,7 +14308,7 @@
         <v>307</v>
       </c>
       <c r="K213" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L213" s="19">
         <f t="shared" si="7"/>
@@ -14354,7 +14357,7 @@
         <v>133</v>
       </c>
       <c r="K214" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L214" s="19">
         <v>2</v>
@@ -14400,7 +14403,7 @@
         <v>348</v>
       </c>
       <c r="K215" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L215" s="19">
         <v>2</v>
@@ -14446,7 +14449,7 @@
         <v>351</v>
       </c>
       <c r="K216" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L216" s="19">
         <v>2</v>
@@ -14492,7 +14495,7 @@
         <v>353</v>
       </c>
       <c r="K217" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L217" s="19">
         <v>2</v>
@@ -14538,7 +14541,7 @@
         <v>58</v>
       </c>
       <c r="K218" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L218" s="19">
         <v>2</v>
@@ -14584,7 +14587,7 @@
         <v>356</v>
       </c>
       <c r="K219" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L219" s="19">
         <v>2</v>
@@ -14630,7 +14633,7 @@
         <v>358</v>
       </c>
       <c r="K220" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L220" s="19">
         <v>2</v>
@@ -14676,7 +14679,7 @@
         <v>70</v>
       </c>
       <c r="K221" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L221" s="19">
         <v>2</v>
@@ -14722,7 +14725,7 @@
         <v>361</v>
       </c>
       <c r="K222" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L222" s="19">
         <v>2</v>
@@ -14768,7 +14771,7 @@
         <v>81</v>
       </c>
       <c r="K223" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L223" s="19">
         <v>2</v>
@@ -14814,7 +14817,7 @@
         <v>73</v>
       </c>
       <c r="K224" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L224" s="19">
         <v>2</v>
@@ -14860,7 +14863,7 @@
         <v>86</v>
       </c>
       <c r="K225" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L225" s="19">
         <v>2</v>
@@ -14906,7 +14909,7 @@
         <v>366</v>
       </c>
       <c r="K226" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L226" s="19">
         <v>2</v>
@@ -14952,7 +14955,7 @@
         <v>368</v>
       </c>
       <c r="K227" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L227" s="19">
         <v>2</v>
@@ -14998,7 +15001,7 @@
         <v>370</v>
       </c>
       <c r="K228" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L228" s="19">
         <v>2</v>
@@ -15044,7 +15047,7 @@
         <v>370</v>
       </c>
       <c r="K229" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L229" s="19">
         <v>2</v>
@@ -15090,7 +15093,7 @@
         <v>86</v>
       </c>
       <c r="K230" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L230" s="19">
         <v>2</v>
@@ -15136,7 +15139,7 @@
         <v>151</v>
       </c>
       <c r="K231" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L231" s="19">
         <f t="shared" ref="L231:L239" si="8">IF(K231="Public",1,IF(K231="FOUO (CUI)",2,IF(K231="Sensitive (CUI)",3,IF(K231="System-Only",4))))</f>
@@ -15183,7 +15186,7 @@
         <v>40</v>
       </c>
       <c r="K232" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L232" s="19">
         <f t="shared" si="8"/>
@@ -15230,7 +15233,7 @@
         <v>154</v>
       </c>
       <c r="K233" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L233" s="19">
         <f t="shared" si="8"/>
@@ -15277,7 +15280,7 @@
         <v>156</v>
       </c>
       <c r="K234" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L234" s="19">
         <f t="shared" si="8"/>
@@ -15326,7 +15329,7 @@
         <v>171</v>
       </c>
       <c r="K235" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L235" s="19">
         <f t="shared" si="8"/>
@@ -15373,7 +15376,7 @@
         <v>173</v>
       </c>
       <c r="K236" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L236" s="19">
         <f t="shared" si="8"/>
@@ -15422,7 +15425,7 @@
         <v>176</v>
       </c>
       <c r="K237" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L237" s="19">
         <f t="shared" si="8"/>
@@ -15469,7 +15472,7 @@
         <v>178</v>
       </c>
       <c r="K238" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L238" s="19">
         <f t="shared" si="8"/>
@@ -15516,7 +15519,7 @@
         <v>180</v>
       </c>
       <c r="K239" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L239" s="19">
         <f t="shared" si="8"/>
@@ -15565,7 +15568,7 @@
         <v>1</v>
       </c>
       <c r="K240" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L240" s="19">
         <v>3</v>
@@ -15611,7 +15614,7 @@
         <v>411112260</v>
       </c>
       <c r="K241" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L241" s="19">
         <v>3</v>
@@ -15659,7 +15662,7 @@
         <v>391</v>
       </c>
       <c r="K242" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L242" s="19">
         <v>2</v>
@@ -15707,7 +15710,7 @@
         <v>393</v>
       </c>
       <c r="K243" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L243" s="19">
         <v>2</v>
@@ -15755,7 +15758,7 @@
         <v>396</v>
       </c>
       <c r="K244" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L244" s="19">
         <v>3</v>
@@ -15803,7 +15806,7 @@
         <v>398</v>
       </c>
       <c r="K245" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L245" s="19">
         <v>3</v>
@@ -15851,7 +15854,7 @@
         <v>400</v>
       </c>
       <c r="K246" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L246" s="19">
         <v>3</v>
@@ -15899,7 +15902,7 @@
         <v>403</v>
       </c>
       <c r="K247" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L247" s="19">
         <v>3</v>
@@ -15945,7 +15948,7 @@
         <v>1026310</v>
       </c>
       <c r="K248" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L248" s="19">
         <v>3</v>
@@ -15991,7 +15994,7 @@
         <v>406</v>
       </c>
       <c r="K249" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L249" s="19">
         <v>3</v>
@@ -16037,7 +16040,7 @@
         <v>86</v>
       </c>
       <c r="K250" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L250" s="19">
         <v>3</v>
@@ -16085,7 +16088,7 @@
         <v>307</v>
       </c>
       <c r="K251" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L251" s="19">
         <v>3</v>
@@ -16133,7 +16136,7 @@
         <v>176</v>
       </c>
       <c r="K252" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L252" s="19">
         <v>3</v>
@@ -16181,7 +16184,7 @@
         <v>413</v>
       </c>
       <c r="K253" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L253" s="19">
         <v>3</v>
@@ -16229,7 +16232,7 @@
         <v>415</v>
       </c>
       <c r="K254" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L254" s="19">
         <v>3</v>
@@ -16275,7 +16278,7 @@
         <v>417</v>
       </c>
       <c r="K255" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L255" s="19">
         <v>3</v>
@@ -16321,7 +16324,7 @@
         <v>419</v>
       </c>
       <c r="K256" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L256" s="19">
         <v>3</v>
@@ -16367,7 +16370,7 @@
         <v>68</v>
       </c>
       <c r="K257" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L257" s="19">
         <v>3</v>
@@ -16413,7 +16416,7 @@
         <v>422</v>
       </c>
       <c r="K258" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L258" s="19">
         <v>3</v>
@@ -16461,7 +16464,7 @@
         <v>424</v>
       </c>
       <c r="K259" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L259" s="19">
         <v>3</v>
@@ -16509,7 +16512,7 @@
         <v>426</v>
       </c>
       <c r="K260" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L260" s="19">
         <v>3</v>
@@ -16555,7 +16558,7 @@
         <v>428</v>
       </c>
       <c r="K261" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L261" s="19">
         <v>3</v>
@@ -16601,7 +16604,7 @@
         <v>81</v>
       </c>
       <c r="K262" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L262" s="19">
         <v>3</v>
@@ -16647,7 +16650,7 @@
         <v>151</v>
       </c>
       <c r="K263" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L263" s="19">
         <f t="shared" ref="L263:L287" si="12">IF(K263="Public",1,IF(K263="FOUO (CUI)",2,IF(K263="Sensitive (CUI)",3,IF(K263="System-Only",4))))</f>
@@ -16694,7 +16697,7 @@
         <v>40</v>
       </c>
       <c r="K264" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L264" s="19">
         <f t="shared" si="12"/>
@@ -16741,7 +16744,7 @@
         <v>154</v>
       </c>
       <c r="K265" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L265" s="19">
         <f t="shared" si="12"/>
@@ -16788,7 +16791,7 @@
         <v>156</v>
       </c>
       <c r="K266" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L266" s="19">
         <f t="shared" si="12"/>
@@ -16837,7 +16840,7 @@
         <v>171</v>
       </c>
       <c r="K267" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L267" s="19">
         <f t="shared" si="12"/>
@@ -16884,7 +16887,7 @@
         <v>173</v>
       </c>
       <c r="K268" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L268" s="19">
         <f t="shared" si="12"/>
@@ -16933,7 +16936,7 @@
         <v>176</v>
       </c>
       <c r="K269" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L269" s="19">
         <f t="shared" si="12"/>
@@ -16980,7 +16983,7 @@
         <v>178</v>
       </c>
       <c r="K270" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L270" s="19">
         <f t="shared" si="12"/>
@@ -17027,7 +17030,7 @@
         <v>180</v>
       </c>
       <c r="K271" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L271" s="19">
         <f t="shared" si="12"/>
@@ -17074,7 +17077,7 @@
         <v>151</v>
       </c>
       <c r="K272" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L272" s="19">
         <f t="shared" si="12"/>
@@ -17121,7 +17124,7 @@
         <v>40</v>
       </c>
       <c r="K273" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L273" s="19">
         <f t="shared" si="12"/>
@@ -17168,7 +17171,7 @@
         <v>154</v>
       </c>
       <c r="K274" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L274" s="19">
         <f t="shared" si="12"/>
@@ -17215,7 +17218,7 @@
         <v>156</v>
       </c>
       <c r="K275" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L275" s="19">
         <f t="shared" si="12"/>
@@ -17262,7 +17265,7 @@
         <v>158</v>
       </c>
       <c r="K276" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L276" s="19">
         <f t="shared" si="12"/>
@@ -17309,7 +17312,7 @@
         <v>160</v>
       </c>
       <c r="K277" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L277" s="19">
         <f t="shared" si="12"/>
@@ -17356,7 +17359,7 @@
         <v>162</v>
       </c>
       <c r="K278" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L278" s="19">
         <f t="shared" si="12"/>
@@ -17405,7 +17408,7 @@
         <v>164</v>
       </c>
       <c r="K279" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L279" s="19">
         <f t="shared" si="12"/>
@@ -17454,7 +17457,7 @@
         <v>166</v>
       </c>
       <c r="K280" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L280" s="19">
         <f t="shared" si="12"/>
@@ -17501,7 +17504,7 @@
         <v>81</v>
       </c>
       <c r="K281" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L281" s="19">
         <f t="shared" si="12"/>
@@ -17550,7 +17553,7 @@
         <v>169</v>
       </c>
       <c r="K282" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L282" s="19">
         <f t="shared" si="12"/>
@@ -17599,7 +17602,7 @@
         <v>171</v>
       </c>
       <c r="K283" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L283" s="19">
         <f t="shared" si="12"/>
@@ -17646,7 +17649,7 @@
         <v>173</v>
       </c>
       <c r="K284" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L284" s="19">
         <f t="shared" si="12"/>
@@ -17695,7 +17698,7 @@
         <v>176</v>
       </c>
       <c r="K285" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L285" s="19">
         <f t="shared" si="12"/>
@@ -17742,7 +17745,7 @@
         <v>178</v>
       </c>
       <c r="K286" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L286" s="19">
         <f t="shared" si="12"/>
@@ -17789,7 +17792,7 @@
         <v>180</v>
       </c>
       <c r="K287" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L287" s="19">
         <f t="shared" si="12"/>
@@ -17815,48 +17818,44 @@
       <c r="B288" s="124">
         <v>284</v>
       </c>
-      <c r="C288" s="124" t="s">
-        <v>18</v>
-      </c>
-      <c r="D288" s="124" t="s">
-        <v>18</v>
-      </c>
-      <c r="E288" s="124">
-        <v>9</v>
+      <c r="C288" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="D288" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E288" s="51">
+        <v>0</v>
       </c>
       <c r="F288" s="26" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="G288" s="19"/>
-      <c r="H288" s="20" t="s">
-        <v>31</v>
-      </c>
+      <c r="H288" s="125"/>
       <c r="I288" s="125"/>
-      <c r="J288" s="19" t="s">
-        <v>455</v>
-      </c>
-      <c r="K288" s="19" t="s">
-        <v>924</v>
-      </c>
-      <c r="L288" s="19">
+      <c r="J288" s="126"/>
+      <c r="K288" s="16" t="s">
+        <v>923</v>
+      </c>
+      <c r="L288" s="16">
         <v>3</v>
       </c>
-      <c r="M288" s="126" t="str">
+      <c r="M288" s="127" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="N288" s="126" t="str">
+      <c r="N288" s="127" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="O288" s="34" t="str">
+      <c r="O288" s="128" t="str">
         <f t="shared" si="11"/>
         <v>X</v>
       </c>
     </row>
     <row r="289" spans="1:15" ht="29.25" customHeight="1">
       <c r="A289" s="16" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B289" s="17">
         <v>285</v>
@@ -17871,7 +17870,7 @@
         <v>4</v>
       </c>
       <c r="F289" s="18" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G289" s="19"/>
       <c r="H289" s="20" t="s">
@@ -17879,7 +17878,7 @@
       </c>
       <c r="I289" s="20"/>
       <c r="J289" s="35" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K289" s="16" t="s">
         <v>16</v>
@@ -17903,7 +17902,7 @@
     </row>
     <row r="290" spans="1:15" ht="55.5" customHeight="1">
       <c r="A290" s="16" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B290" s="17">
         <v>286</v>
@@ -17918,7 +17917,7 @@
         <v>1100</v>
       </c>
       <c r="F290" s="18" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G290" s="19" t="s">
         <v>110</v>
@@ -17930,7 +17929,7 @@
         <v>111</v>
       </c>
       <c r="J290" s="35" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="K290" s="16" t="s">
         <v>16</v>
@@ -17953,7 +17952,7 @@
     </row>
     <row r="291" spans="1:15" ht="14.25" customHeight="1">
       <c r="A291" s="16" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B291" s="17">
         <v>287</v>
@@ -17962,7 +17961,7 @@
         <v>18</v>
       </c>
       <c r="D291" s="17" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E291" s="17">
         <v>1</v>
@@ -17971,13 +17970,13 @@
         <v>27</v>
       </c>
       <c r="G291" s="20" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H291" s="20" t="s">
         <v>28</v>
       </c>
       <c r="I291" s="20" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="J291" s="19" t="s">
         <v>133</v>
@@ -18003,7 +18002,7 @@
     </row>
     <row r="292" spans="1:15" ht="74.25" customHeight="1">
       <c r="A292" s="16" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B292" s="17">
         <v>288</v>
@@ -18012,13 +18011,13 @@
         <v>18</v>
       </c>
       <c r="D292" s="17" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E292" s="17">
         <v>1</v>
       </c>
       <c r="F292" s="18" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G292" s="19"/>
       <c r="H292" s="20" t="s">
@@ -18026,7 +18025,7 @@
       </c>
       <c r="I292" s="20"/>
       <c r="J292" s="19" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="K292" s="16" t="s">
         <v>16</v>
@@ -18049,7 +18048,7 @@
     </row>
     <row r="293" spans="1:15" ht="14.25" customHeight="1">
       <c r="A293" s="16" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B293" s="17">
         <v>289</v>
@@ -18064,7 +18063,7 @@
         <v>4</v>
       </c>
       <c r="F293" s="18" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G293" s="19"/>
       <c r="H293" s="20" t="s">
@@ -18096,7 +18095,7 @@
     </row>
     <row r="294" spans="1:15" ht="59.25" customHeight="1">
       <c r="A294" s="37" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B294" s="17">
         <v>290</v>
@@ -18111,7 +18110,7 @@
         <v>125</v>
       </c>
       <c r="F294" s="18" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G294" s="19" t="s">
         <v>110</v>
@@ -18123,7 +18122,7 @@
         <v>111</v>
       </c>
       <c r="J294" s="19" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="K294" s="16" t="s">
         <v>16</v>
@@ -18146,7 +18145,7 @@
     </row>
     <row r="295" spans="1:15" ht="30.75" customHeight="1">
       <c r="A295" s="16" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B295" s="17">
         <v>291</v>
@@ -18161,7 +18160,7 @@
         <v>4</v>
       </c>
       <c r="F295" s="18" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G295" s="19"/>
       <c r="H295" s="20" t="s">
@@ -18169,10 +18168,10 @@
       </c>
       <c r="I295" s="20"/>
       <c r="J295" s="35" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="K295" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L295" s="19">
         <f>IF(K295="Public",1,IF(K295="FOUO (CUI)",2,IF(K295="Sensitive (CUI)",3,IF(K295="System-Only",4))))</f>
@@ -18193,7 +18192,7 @@
     </row>
     <row r="296" spans="1:15" ht="14.25" customHeight="1">
       <c r="A296" s="37" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B296" s="17">
         <v>292</v>
@@ -18208,7 +18207,7 @@
         <v>1600</v>
       </c>
       <c r="F296" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G296" s="19" t="s">
         <v>110</v>
@@ -18220,10 +18219,10 @@
         <v>111</v>
       </c>
       <c r="J296" s="19" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="K296" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L296" s="19">
         <v>2</v>
@@ -18243,7 +18242,7 @@
     </row>
     <row r="297" spans="1:15" ht="14.25" customHeight="1">
       <c r="A297" s="16" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B297" s="17">
         <v>293</v>
@@ -18252,7 +18251,7 @@
         <v>18</v>
       </c>
       <c r="D297" s="17" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E297" s="17">
         <v>4</v>
@@ -18261,16 +18260,16 @@
         <v>27</v>
       </c>
       <c r="G297" s="20" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H297" s="20" t="s">
         <v>60</v>
       </c>
       <c r="I297" s="20" t="s">
+        <v>483</v>
+      </c>
+      <c r="J297" s="19" t="s">
         <v>484</v>
-      </c>
-      <c r="J297" s="19" t="s">
-        <v>485</v>
       </c>
       <c r="K297" s="16" t="s">
         <v>16</v>
@@ -18293,7 +18292,7 @@
     </row>
     <row r="298" spans="1:15" ht="14.25" customHeight="1">
       <c r="A298" s="16" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B298" s="17">
         <v>294</v>
@@ -18308,7 +18307,7 @@
         <v>4</v>
       </c>
       <c r="F298" s="18" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G298" s="19"/>
       <c r="H298" s="20" t="s">
@@ -18316,7 +18315,7 @@
       </c>
       <c r="I298" s="20"/>
       <c r="J298" s="35" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K298" s="16" t="s">
         <v>16</v>
@@ -18340,7 +18339,7 @@
     </row>
     <row r="299" spans="1:15" ht="14.25" customHeight="1">
       <c r="A299" s="37" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B299" s="17">
         <v>295</v>
@@ -18355,7 +18354,7 @@
         <v>75</v>
       </c>
       <c r="F299" s="18" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G299" s="19" t="s">
         <v>110</v>
@@ -18367,7 +18366,7 @@
         <v>111</v>
       </c>
       <c r="J299" s="19" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="K299" s="16" t="s">
         <v>16</v>
@@ -18390,7 +18389,7 @@
     </row>
     <row r="300" spans="1:15" ht="14.25" customHeight="1">
       <c r="A300" s="16" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B300" s="17">
         <v>296</v>
@@ -18405,7 +18404,7 @@
         <v>25</v>
       </c>
       <c r="F300" s="18" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G300" s="19"/>
       <c r="H300" s="20" t="s">
@@ -18416,7 +18415,7 @@
         <v>376916</v>
       </c>
       <c r="K300" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L300" s="19">
         <v>2</v>
@@ -18436,7 +18435,7 @@
     </row>
     <row r="301" spans="1:15" ht="14.25" customHeight="1">
       <c r="A301" s="16" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B301" s="17">
         <v>297</v>
@@ -18462,7 +18461,7 @@
         <v>5749</v>
       </c>
       <c r="K301" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L301" s="19">
         <v>3</v>
@@ -18482,7 +18481,7 @@
     </row>
     <row r="302" spans="1:15" ht="14.25" customHeight="1">
       <c r="A302" s="16" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B302" s="17">
         <v>298</v>
@@ -18505,10 +18504,10 @@
       </c>
       <c r="I302" s="20"/>
       <c r="J302" s="19" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="K302" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L302" s="19">
         <v>3</v>
@@ -18528,7 +18527,7 @@
     </row>
     <row r="303" spans="1:15" ht="14.25" customHeight="1">
       <c r="A303" s="16" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B303" s="17">
         <v>299</v>
@@ -18554,7 +18553,7 @@
         <v>38100080001</v>
       </c>
       <c r="K303" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L303" s="19">
         <v>3</v>
@@ -18574,7 +18573,7 @@
     </row>
     <row r="304" spans="1:15" ht="14.25" customHeight="1">
       <c r="A304" s="16" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B304" s="17">
         <v>300</v>
@@ -18600,7 +18599,7 @@
         <v>32323720011</v>
       </c>
       <c r="K304" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L304" s="19">
         <v>3</v>
@@ -18620,7 +18619,7 @@
     </row>
     <row r="305" spans="1:15" ht="14.25" customHeight="1">
       <c r="A305" s="16" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B305" s="17">
         <v>301</v>
@@ -18646,7 +18645,7 @@
         <v>111111</v>
       </c>
       <c r="K305" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L305" s="19">
         <v>3</v>
@@ -18666,7 +18665,7 @@
     </row>
     <row r="306" spans="1:15" ht="14.25" customHeight="1">
       <c r="A306" s="16" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B306" s="17">
         <v>302</v>
@@ -18681,22 +18680,22 @@
         <v>7</v>
       </c>
       <c r="F306" s="18" t="s">
+        <v>499</v>
+      </c>
+      <c r="G306" s="20" t="s">
         <v>500</v>
-      </c>
-      <c r="G306" s="20" t="s">
-        <v>501</v>
       </c>
       <c r="H306" s="20" t="s">
         <v>28</v>
       </c>
       <c r="I306" s="20" t="s">
+        <v>501</v>
+      </c>
+      <c r="J306" s="19" t="s">
         <v>502</v>
       </c>
-      <c r="J306" s="19" t="s">
-        <v>503</v>
-      </c>
       <c r="K306" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L306" s="19">
         <v>2</v>
@@ -18716,7 +18715,7 @@
     </row>
     <row r="307" spans="1:15" ht="14.25" customHeight="1">
       <c r="A307" s="16" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B307" s="17">
         <v>303</v>
@@ -18731,7 +18730,7 @@
         <v>2</v>
       </c>
       <c r="F307" s="18" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G307" s="19"/>
       <c r="H307" s="20" t="s">
@@ -18742,7 +18741,7 @@
         <v>57</v>
       </c>
       <c r="K307" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L307" s="19">
         <v>2</v>
@@ -18762,7 +18761,7 @@
     </row>
     <row r="308" spans="1:15" ht="14.25" customHeight="1">
       <c r="A308" s="16" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B308" s="17">
         <v>304</v>
@@ -18777,20 +18776,20 @@
         <v>4</v>
       </c>
       <c r="F308" s="18" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G308" s="19"/>
       <c r="H308" s="20" t="s">
         <v>28</v>
       </c>
       <c r="I308" s="20" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J308" s="19">
         <v>9700</v>
       </c>
       <c r="K308" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L308" s="19">
         <v>2</v>
@@ -18810,7 +18809,7 @@
     </row>
     <row r="309" spans="1:15" ht="14.25" customHeight="1">
       <c r="A309" s="16" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B309" s="17">
         <v>305</v>
@@ -18825,20 +18824,20 @@
         <v>150</v>
       </c>
       <c r="F309" s="18" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G309" s="19"/>
       <c r="H309" s="20" t="s">
         <v>28</v>
       </c>
       <c r="I309" s="20" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J309" s="19" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="K309" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L309" s="19">
         <v>2</v>
@@ -18858,7 +18857,7 @@
     </row>
     <row r="310" spans="1:15" ht="14.25" customHeight="1">
       <c r="A310" s="16" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B310" s="17">
         <v>306</v>
@@ -18873,20 +18872,20 @@
         <v>4</v>
       </c>
       <c r="F310" s="18" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G310" s="19"/>
       <c r="H310" s="20" t="s">
         <v>28</v>
       </c>
       <c r="I310" s="20" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J310" s="19">
         <v>2100</v>
       </c>
       <c r="K310" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L310" s="19">
         <v>2</v>
@@ -18906,7 +18905,7 @@
     </row>
     <row r="311" spans="1:15" ht="14.25" customHeight="1">
       <c r="A311" s="16" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B311" s="17">
         <v>307</v>
@@ -18921,20 +18920,20 @@
         <v>150</v>
       </c>
       <c r="F311" s="18" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G311" s="19"/>
       <c r="H311" s="20" t="s">
         <v>28</v>
       </c>
       <c r="I311" s="20" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J311" s="19" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="K311" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L311" s="19">
         <v>2</v>
@@ -18954,7 +18953,7 @@
     </row>
     <row r="312" spans="1:15" ht="99.75" customHeight="1">
       <c r="A312" s="16" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B312" s="17">
         <v>308</v>
@@ -18969,20 +18968,20 @@
         <v>6</v>
       </c>
       <c r="F312" s="18" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G312" s="19"/>
       <c r="H312" s="20" t="s">
         <v>28</v>
       </c>
       <c r="I312" s="20" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J312" s="19" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="K312" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L312" s="19">
         <v>2</v>
@@ -19002,7 +19001,7 @@
     </row>
     <row r="313" spans="1:15" ht="14.25" customHeight="1">
       <c r="A313" s="16" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B313" s="17">
         <v>309</v>
@@ -19028,7 +19027,7 @@
         <v>151</v>
       </c>
       <c r="K313" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L313" s="19">
         <f t="shared" ref="L313:L344" si="13">IF(K313="Public",1,IF(K313="FOUO (CUI)",2,IF(K313="Sensitive (CUI)",3,IF(K313="System-Only",4))))</f>
@@ -19049,7 +19048,7 @@
     </row>
     <row r="314" spans="1:15" ht="14.25" customHeight="1">
       <c r="A314" s="16" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B314" s="17">
         <v>310</v>
@@ -19075,7 +19074,7 @@
         <v>40</v>
       </c>
       <c r="K314" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L314" s="19">
         <f t="shared" si="13"/>
@@ -19096,7 +19095,7 @@
     </row>
     <row r="315" spans="1:15" ht="14.25" customHeight="1">
       <c r="A315" s="16" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B315" s="17">
         <v>311</v>
@@ -19122,7 +19121,7 @@
         <v>154</v>
       </c>
       <c r="K315" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L315" s="19">
         <f t="shared" si="13"/>
@@ -19143,7 +19142,7 @@
     </row>
     <row r="316" spans="1:15" ht="14.25" customHeight="1">
       <c r="A316" s="16" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B316" s="17">
         <v>312</v>
@@ -19169,7 +19168,7 @@
         <v>156</v>
       </c>
       <c r="K316" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L316" s="19">
         <f t="shared" si="13"/>
@@ -19190,7 +19189,7 @@
     </row>
     <row r="317" spans="1:15" ht="14.25" customHeight="1">
       <c r="A317" s="16" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B317" s="17">
         <v>313</v>
@@ -19216,7 +19215,7 @@
         <v>158</v>
       </c>
       <c r="K317" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L317" s="19">
         <f t="shared" si="13"/>
@@ -19237,7 +19236,7 @@
     </row>
     <row r="318" spans="1:15" ht="14.25" customHeight="1">
       <c r="A318" s="16" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B318" s="17">
         <v>314</v>
@@ -19263,7 +19262,7 @@
         <v>160</v>
       </c>
       <c r="K318" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L318" s="19">
         <f t="shared" si="13"/>
@@ -19284,7 +19283,7 @@
     </row>
     <row r="319" spans="1:15" ht="14.25" customHeight="1">
       <c r="A319" s="16" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B319" s="17">
         <v>315</v>
@@ -19310,7 +19309,7 @@
         <v>162</v>
       </c>
       <c r="K319" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L319" s="19">
         <f t="shared" si="13"/>
@@ -19331,7 +19330,7 @@
     </row>
     <row r="320" spans="1:15" ht="14.25" customHeight="1">
       <c r="A320" s="16" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B320" s="17">
         <v>316</v>
@@ -19359,7 +19358,7 @@
         <v>164</v>
       </c>
       <c r="K320" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L320" s="19">
         <f t="shared" si="13"/>
@@ -19380,7 +19379,7 @@
     </row>
     <row r="321" spans="1:15" ht="14.25" customHeight="1">
       <c r="A321" s="16" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B321" s="17">
         <v>317</v>
@@ -19406,7 +19405,7 @@
         <v>166</v>
       </c>
       <c r="K321" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L321" s="19">
         <f t="shared" si="13"/>
@@ -19427,7 +19426,7 @@
     </row>
     <row r="322" spans="1:15" ht="14.25" customHeight="1">
       <c r="A322" s="16" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B322" s="17">
         <v>318</v>
@@ -19453,7 +19452,7 @@
         <v>81</v>
       </c>
       <c r="K322" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L322" s="19">
         <f t="shared" si="13"/>
@@ -19474,7 +19473,7 @@
     </row>
     <row r="323" spans="1:15" ht="14.25" customHeight="1">
       <c r="A323" s="16" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B323" s="17">
         <v>319</v>
@@ -19502,7 +19501,7 @@
         <v>169</v>
       </c>
       <c r="K323" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L323" s="19">
         <f t="shared" si="13"/>
@@ -19523,7 +19522,7 @@
     </row>
     <row r="324" spans="1:15" ht="14.25" customHeight="1">
       <c r="A324" s="16" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B324" s="17">
         <v>320</v>
@@ -19551,7 +19550,7 @@
         <v>171</v>
       </c>
       <c r="K324" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L324" s="19">
         <f t="shared" si="13"/>
@@ -19572,7 +19571,7 @@
     </row>
     <row r="325" spans="1:15" ht="14.25" customHeight="1">
       <c r="A325" s="16" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B325" s="17">
         <v>321</v>
@@ -19598,7 +19597,7 @@
         <v>173</v>
       </c>
       <c r="K325" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L325" s="19">
         <f t="shared" si="13"/>
@@ -19619,7 +19618,7 @@
     </row>
     <row r="326" spans="1:15" ht="14.25" customHeight="1">
       <c r="A326" s="16" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B326" s="17">
         <v>322</v>
@@ -19647,7 +19646,7 @@
         <v>176</v>
       </c>
       <c r="K326" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L326" s="19">
         <f t="shared" si="13"/>
@@ -19668,7 +19667,7 @@
     </row>
     <row r="327" spans="1:15" ht="14.25" customHeight="1">
       <c r="A327" s="16" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B327" s="17">
         <v>323</v>
@@ -19694,7 +19693,7 @@
         <v>178</v>
       </c>
       <c r="K327" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L327" s="19">
         <f t="shared" si="13"/>
@@ -19715,7 +19714,7 @@
     </row>
     <row r="328" spans="1:15" ht="14.25" customHeight="1">
       <c r="A328" s="16" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B328" s="17">
         <v>324</v>
@@ -19741,7 +19740,7 @@
         <v>180</v>
       </c>
       <c r="K328" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L328" s="19">
         <f t="shared" si="13"/>
@@ -19762,7 +19761,7 @@
     </row>
     <row r="329" spans="1:15" ht="14.25" customHeight="1">
       <c r="A329" s="16" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B329" s="17">
         <v>325</v>
@@ -19788,7 +19787,7 @@
         <v>151</v>
       </c>
       <c r="K329" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L329" s="19">
         <f t="shared" si="13"/>
@@ -19809,7 +19808,7 @@
     </row>
     <row r="330" spans="1:15" ht="14.25" customHeight="1">
       <c r="A330" s="16" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B330" s="17">
         <v>326</v>
@@ -19835,7 +19834,7 @@
         <v>40</v>
       </c>
       <c r="K330" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L330" s="19">
         <f t="shared" si="13"/>
@@ -19856,7 +19855,7 @@
     </row>
     <row r="331" spans="1:15" ht="14.25" customHeight="1">
       <c r="A331" s="16" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B331" s="17">
         <v>327</v>
@@ -19882,7 +19881,7 @@
         <v>154</v>
       </c>
       <c r="K331" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L331" s="19">
         <f t="shared" si="13"/>
@@ -19903,7 +19902,7 @@
     </row>
     <row r="332" spans="1:15" ht="14.25" customHeight="1">
       <c r="A332" s="16" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B332" s="17">
         <v>328</v>
@@ -19929,7 +19928,7 @@
         <v>156</v>
       </c>
       <c r="K332" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L332" s="19">
         <f t="shared" si="13"/>
@@ -19950,7 +19949,7 @@
     </row>
     <row r="333" spans="1:15" ht="14.25" customHeight="1">
       <c r="A333" s="16" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B333" s="17">
         <v>329</v>
@@ -19976,7 +19975,7 @@
         <v>158</v>
       </c>
       <c r="K333" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L333" s="19">
         <f t="shared" si="13"/>
@@ -19997,7 +19996,7 @@
     </row>
     <row r="334" spans="1:15" ht="14.25" customHeight="1">
       <c r="A334" s="16" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B334" s="17">
         <v>330</v>
@@ -20023,7 +20022,7 @@
         <v>160</v>
       </c>
       <c r="K334" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L334" s="19">
         <f t="shared" si="13"/>
@@ -20044,7 +20043,7 @@
     </row>
     <row r="335" spans="1:15" ht="14.25" customHeight="1">
       <c r="A335" s="16" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B335" s="17">
         <v>331</v>
@@ -20070,7 +20069,7 @@
         <v>162</v>
       </c>
       <c r="K335" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L335" s="19">
         <f t="shared" si="13"/>
@@ -20091,7 +20090,7 @@
     </row>
     <row r="336" spans="1:15" ht="14.25" customHeight="1">
       <c r="A336" s="16" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B336" s="17">
         <v>332</v>
@@ -20119,7 +20118,7 @@
         <v>164</v>
       </c>
       <c r="K336" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L336" s="19">
         <f t="shared" si="13"/>
@@ -20140,7 +20139,7 @@
     </row>
     <row r="337" spans="1:15" ht="14.25" customHeight="1">
       <c r="A337" s="16" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B337" s="17">
         <v>333</v>
@@ -20166,7 +20165,7 @@
         <v>166</v>
       </c>
       <c r="K337" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L337" s="19">
         <f t="shared" si="13"/>
@@ -20187,7 +20186,7 @@
     </row>
     <row r="338" spans="1:15" ht="14.25" customHeight="1">
       <c r="A338" s="16" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B338" s="17">
         <v>334</v>
@@ -20213,7 +20212,7 @@
         <v>81</v>
       </c>
       <c r="K338" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L338" s="19">
         <f t="shared" si="13"/>
@@ -20234,7 +20233,7 @@
     </row>
     <row r="339" spans="1:15" ht="14.25" customHeight="1">
       <c r="A339" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B339" s="17">
         <v>335</v>
@@ -20262,7 +20261,7 @@
         <v>169</v>
       </c>
       <c r="K339" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L339" s="19">
         <f t="shared" si="13"/>
@@ -20283,7 +20282,7 @@
     </row>
     <row r="340" spans="1:15" ht="14.25" customHeight="1">
       <c r="A340" s="16" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B340" s="17">
         <v>336</v>
@@ -20311,7 +20310,7 @@
         <v>171</v>
       </c>
       <c r="K340" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L340" s="19">
         <f t="shared" si="13"/>
@@ -20332,7 +20331,7 @@
     </row>
     <row r="341" spans="1:15" ht="14.25" customHeight="1">
       <c r="A341" s="16" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B341" s="17">
         <v>337</v>
@@ -20358,7 +20357,7 @@
         <v>173</v>
       </c>
       <c r="K341" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L341" s="19">
         <f t="shared" si="13"/>
@@ -20379,7 +20378,7 @@
     </row>
     <row r="342" spans="1:15" ht="14.25" customHeight="1">
       <c r="A342" s="16" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B342" s="17">
         <v>338</v>
@@ -20407,7 +20406,7 @@
         <v>176</v>
       </c>
       <c r="K342" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L342" s="19">
         <f t="shared" si="13"/>
@@ -20428,7 +20427,7 @@
     </row>
     <row r="343" spans="1:15" ht="14.25" customHeight="1">
       <c r="A343" s="16" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B343" s="17">
         <v>339</v>
@@ -20454,7 +20453,7 @@
         <v>178</v>
       </c>
       <c r="K343" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L343" s="19">
         <f t="shared" si="13"/>
@@ -20475,7 +20474,7 @@
     </row>
     <row r="344" spans="1:15" ht="14.25" customHeight="1">
       <c r="A344" s="16" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B344" s="17">
         <v>340</v>
@@ -20501,7 +20500,7 @@
         <v>180</v>
       </c>
       <c r="K344" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L344" s="19">
         <f t="shared" si="13"/>
@@ -20522,7 +20521,7 @@
     </row>
     <row r="345" spans="1:15" ht="14.25" customHeight="1">
       <c r="A345" s="43" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B345" s="17">
         <v>341</v>
@@ -20545,10 +20544,10 @@
       </c>
       <c r="I345" s="42"/>
       <c r="J345" s="41" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="K345" s="43" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L345" s="41">
         <f t="shared" ref="L345:L365" si="14">IF(K345="Public",1,IF(K345="FOUO (CUI)",2,IF(K345="Sensitive (CUI)",3,IF(K345="System-Only",4))))</f>
@@ -20569,7 +20568,7 @@
     </row>
     <row r="346" spans="1:15" ht="14.25" customHeight="1">
       <c r="A346" s="43" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B346" s="17">
         <v>342</v>
@@ -20584,7 +20583,7 @@
         <v>10</v>
       </c>
       <c r="F346" s="40" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G346" s="41"/>
       <c r="H346" s="42" t="s">
@@ -20592,7 +20591,7 @@
       </c>
       <c r="I346" s="42"/>
       <c r="J346" s="41" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="K346" s="43" t="s">
         <v>16</v>
@@ -20616,7 +20615,7 @@
     </row>
     <row r="347" spans="1:15" ht="14.25" customHeight="1">
       <c r="A347" s="43" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B347" s="17">
         <v>343</v>
@@ -20631,7 +20630,7 @@
         <v>10</v>
       </c>
       <c r="F347" s="40" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G347" s="41"/>
       <c r="H347" s="42" t="s">
@@ -20641,10 +20640,10 @@
         <v>309</v>
       </c>
       <c r="J347" s="41" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="K347" s="43" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L347" s="41">
         <f t="shared" si="14"/>
@@ -20665,7 +20664,7 @@
     </row>
     <row r="348" spans="1:15" ht="14.25" customHeight="1">
       <c r="A348" s="43" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B348" s="17">
         <v>344</v>
@@ -20680,7 +20679,7 @@
         <v>10</v>
       </c>
       <c r="F348" s="40" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G348" s="41"/>
       <c r="H348" s="42" t="s">
@@ -20690,10 +20689,10 @@
         <v>322</v>
       </c>
       <c r="J348" s="41" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="K348" s="43" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L348" s="41">
         <f t="shared" si="14"/>
@@ -20714,7 +20713,7 @@
     </row>
     <row r="349" spans="1:15" ht="14.25" customHeight="1">
       <c r="A349" s="43" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B349" s="17">
         <v>345</v>
@@ -20729,7 +20728,7 @@
         <v>10</v>
       </c>
       <c r="F349" s="40" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G349" s="41"/>
       <c r="H349" s="42" t="s">
@@ -20739,10 +20738,10 @@
         <v>334</v>
       </c>
       <c r="J349" s="41" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="K349" s="43" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L349" s="41">
         <f t="shared" si="14"/>
@@ -20763,7 +20762,7 @@
     </row>
     <row r="350" spans="1:15" ht="14.25" customHeight="1">
       <c r="A350" s="43" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B350" s="17">
         <v>346</v>
@@ -20778,7 +20777,7 @@
         <v>10</v>
       </c>
       <c r="F350" s="40" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G350" s="41"/>
       <c r="H350" s="42" t="s">
@@ -20786,10 +20785,10 @@
       </c>
       <c r="I350" s="42"/>
       <c r="J350" s="41" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="K350" s="43" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L350" s="41">
         <f t="shared" si="14"/>
@@ -20810,7 +20809,7 @@
     </row>
     <row r="351" spans="1:15" ht="14.25" customHeight="1">
       <c r="A351" s="43" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B351" s="17">
         <v>347</v>
@@ -20825,7 +20824,7 @@
         <v>0</v>
       </c>
       <c r="F351" s="40" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G351" s="41"/>
       <c r="H351" s="42" t="s">
@@ -20855,7 +20854,7 @@
     </row>
     <row r="352" spans="1:15" ht="14.25" customHeight="1">
       <c r="A352" s="43" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B352" s="17">
         <v>348</v>
@@ -20870,7 +20869,7 @@
         <v>0</v>
       </c>
       <c r="F352" s="40" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G352" s="41"/>
       <c r="H352" s="42" t="s">
@@ -20900,7 +20899,7 @@
     </row>
     <row r="353" spans="1:15" ht="14.25" customHeight="1">
       <c r="A353" s="43" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B353" s="17">
         <v>349</v>
@@ -20915,7 +20914,7 @@
         <v>0</v>
       </c>
       <c r="F353" s="40" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G353" s="41"/>
       <c r="H353" s="42" t="s">
@@ -20945,7 +20944,7 @@
     </row>
     <row r="354" spans="1:15" ht="14.25" customHeight="1">
       <c r="A354" s="43" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B354" s="17">
         <v>350</v>
@@ -20960,7 +20959,7 @@
         <v>0</v>
       </c>
       <c r="F354" s="40" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G354" s="41"/>
       <c r="H354" s="42" t="s">
@@ -20990,7 +20989,7 @@
     </row>
     <row r="355" spans="1:15" ht="14.25" customHeight="1">
       <c r="A355" s="43" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B355" s="17">
         <v>351</v>
@@ -21005,7 +21004,7 @@
         <v>0</v>
       </c>
       <c r="F355" s="40" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G355" s="41"/>
       <c r="H355" s="42" t="s">
@@ -21035,7 +21034,7 @@
     </row>
     <row r="356" spans="1:15" ht="14.25" customHeight="1">
       <c r="A356" s="43" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B356" s="17">
         <v>352</v>
@@ -21050,7 +21049,7 @@
         <v>0</v>
       </c>
       <c r="F356" s="40" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G356" s="41"/>
       <c r="H356" s="42" t="s">
@@ -21080,7 +21079,7 @@
     </row>
     <row r="357" spans="1:15" ht="14.25" customHeight="1">
       <c r="A357" s="43" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B357" s="17">
         <v>353</v>
@@ -21095,7 +21094,7 @@
         <v>0</v>
       </c>
       <c r="F357" s="40" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G357" s="41"/>
       <c r="H357" s="42" t="s">
@@ -21125,7 +21124,7 @@
     </row>
     <row r="358" spans="1:15" ht="14.25" customHeight="1">
       <c r="A358" s="43" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B358" s="17">
         <v>354</v>
@@ -21140,7 +21139,7 @@
         <v>0</v>
       </c>
       <c r="F358" s="40" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G358" s="41"/>
       <c r="H358" s="42" t="s">
@@ -21170,7 +21169,7 @@
     </row>
     <row r="359" spans="1:15" ht="14.25" customHeight="1">
       <c r="A359" s="43" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B359" s="17">
         <v>355</v>
@@ -21185,7 +21184,7 @@
         <v>0</v>
       </c>
       <c r="F359" s="40" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G359" s="41"/>
       <c r="H359" s="42" t="s">
@@ -21215,7 +21214,7 @@
     </row>
     <row r="360" spans="1:15" ht="14.25" customHeight="1">
       <c r="A360" s="43" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B360" s="17">
         <v>356</v>
@@ -21230,7 +21229,7 @@
         <v>0</v>
       </c>
       <c r="F360" s="40" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G360" s="41"/>
       <c r="H360" s="42" t="s">
@@ -21260,7 +21259,7 @@
     </row>
     <row r="361" spans="1:15" ht="14.25" customHeight="1">
       <c r="A361" s="43" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B361" s="17">
         <v>357</v>
@@ -21275,7 +21274,7 @@
         <v>0</v>
       </c>
       <c r="F361" s="40" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G361" s="41"/>
       <c r="H361" s="42" t="s">
@@ -21305,7 +21304,7 @@
     </row>
     <row r="362" spans="1:15" ht="14.25" customHeight="1">
       <c r="A362" s="43" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B362" s="17">
         <v>358</v>
@@ -21320,7 +21319,7 @@
         <v>0</v>
       </c>
       <c r="F362" s="40" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G362" s="41"/>
       <c r="H362" s="42" t="s">
@@ -21350,7 +21349,7 @@
     </row>
     <row r="363" spans="1:15" ht="14.25" customHeight="1">
       <c r="A363" s="43" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B363" s="17">
         <v>359</v>
@@ -21365,7 +21364,7 @@
         <v>0</v>
       </c>
       <c r="F363" s="40" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G363" s="41"/>
       <c r="H363" s="42" t="s">
@@ -21395,7 +21394,7 @@
     </row>
     <row r="364" spans="1:15" ht="14.25" customHeight="1">
       <c r="A364" s="43" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B364" s="17">
         <v>360</v>
@@ -21410,7 +21409,7 @@
         <v>0</v>
       </c>
       <c r="F364" s="40" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G364" s="41"/>
       <c r="H364" s="42" t="s">
@@ -21440,7 +21439,7 @@
     </row>
     <row r="365" spans="1:15" ht="14.25" customHeight="1">
       <c r="A365" s="43" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B365" s="17">
         <v>361</v>
@@ -21455,7 +21454,7 @@
         <v>0</v>
       </c>
       <c r="F365" s="40" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G365" s="41"/>
       <c r="H365" s="42" t="s">
@@ -21485,7 +21484,7 @@
     </row>
     <row r="366" spans="1:15" ht="14.25" customHeight="1">
       <c r="A366" s="55" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B366" s="56">
         <v>362</v>
@@ -21500,7 +21499,7 @@
         <v>4</v>
       </c>
       <c r="F366" s="57" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G366" s="58"/>
       <c r="H366" s="59" t="s">
@@ -21508,7 +21507,7 @@
       </c>
       <c r="I366" s="59"/>
       <c r="J366" s="60" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="K366" s="55" t="s">
         <v>16</v>
@@ -21532,7 +21531,7 @@
     <row r="367" spans="1:15" ht="14.25" customHeight="1"/>
     <row r="368" spans="1:15" ht="14.25" customHeight="1">
       <c r="A368" s="63" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="369" ht="14.25" customHeight="1"/>
@@ -22254,7 +22253,7 @@
     <row r="2" spans="1:26" ht="12" customHeight="1">
       <c r="A2" s="5"/>
       <c r="B2" s="64" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -22312,17 +22311,17 @@
     <row r="4" spans="1:26" ht="12" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="65" t="s">
+        <v>582</v>
+      </c>
+      <c r="C4" s="66" t="s">
         <v>583</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="D4" s="67" t="s">
         <v>584</v>
-      </c>
-      <c r="D4" s="67" t="s">
-        <v>585</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -22348,15 +22347,15 @@
     <row r="5" spans="1:26" ht="12" customHeight="1">
       <c r="A5" s="5"/>
       <c r="B5" s="68" t="s">
+        <v>586</v>
+      </c>
+      <c r="C5" s="140" t="s">
         <v>587</v>
       </c>
-      <c r="C5" s="138" t="s">
-        <v>588</v>
-      </c>
-      <c r="D5" s="139"/>
+      <c r="D5" s="141"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -22382,13 +22381,13 @@
     <row r="6" spans="1:26" ht="12" customHeight="1">
       <c r="A6" s="5"/>
       <c r="B6" s="69" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C6" s="70">
         <v>1</v>
       </c>
       <c r="D6" s="71" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -22416,13 +22415,13 @@
     <row r="7" spans="1:26" ht="12" customHeight="1">
       <c r="A7" s="5"/>
       <c r="B7" s="69" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C7" s="70">
         <v>2</v>
       </c>
       <c r="D7" s="71" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -22450,17 +22449,17 @@
     <row r="8" spans="1:26" ht="12" customHeight="1">
       <c r="A8" s="5"/>
       <c r="B8" s="69" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C8" s="70">
         <v>3</v>
       </c>
       <c r="D8" s="71" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -22486,13 +22485,13 @@
     <row r="9" spans="1:26" ht="12" customHeight="1">
       <c r="A9" s="5"/>
       <c r="B9" s="69" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C9" s="70">
         <v>4</v>
       </c>
       <c r="D9" s="71" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -22520,15 +22519,15 @@
     <row r="10" spans="1:26" ht="15" customHeight="1">
       <c r="A10" s="5"/>
       <c r="B10" s="69" t="s">
+        <v>593</v>
+      </c>
+      <c r="C10" s="142" t="s">
         <v>594</v>
       </c>
-      <c r="C10" s="140" t="s">
-        <v>595</v>
-      </c>
-      <c r="D10" s="141"/>
+      <c r="D10" s="143"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
@@ -22554,13 +22553,13 @@
     <row r="11" spans="1:26" ht="15" customHeight="1">
       <c r="A11" s="5"/>
       <c r="B11" s="69" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C11" s="70">
         <v>1</v>
       </c>
       <c r="D11" s="71" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -22588,17 +22587,17 @@
     <row r="12" spans="1:26" ht="12" customHeight="1">
       <c r="A12" s="5"/>
       <c r="B12" s="69" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C12" s="70">
         <v>2</v>
       </c>
       <c r="D12" s="71" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
@@ -22624,13 +22623,13 @@
     <row r="13" spans="1:26" ht="12" customHeight="1">
       <c r="A13" s="5"/>
       <c r="B13" s="69" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C13" s="70">
         <v>3</v>
       </c>
       <c r="D13" s="71" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -22658,17 +22657,17 @@
     <row r="14" spans="1:26" ht="12" customHeight="1">
       <c r="A14" s="5"/>
       <c r="B14" s="69" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C14" s="70">
         <v>4</v>
       </c>
       <c r="D14" s="71" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
@@ -22694,12 +22693,12 @@
     <row r="15" spans="1:26" ht="15" customHeight="1">
       <c r="A15" s="5"/>
       <c r="B15" s="69" t="s">
+        <v>599</v>
+      </c>
+      <c r="C15" s="142" t="s">
         <v>600</v>
       </c>
-      <c r="C15" s="140" t="s">
-        <v>601</v>
-      </c>
-      <c r="D15" s="141"/>
+      <c r="D15" s="143"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
@@ -22726,17 +22725,17 @@
     <row r="16" spans="1:26" ht="15" customHeight="1">
       <c r="A16" s="5"/>
       <c r="B16" s="69" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C16" s="70">
         <v>1</v>
       </c>
       <c r="D16" s="71" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
@@ -22762,17 +22761,17 @@
     <row r="17" spans="1:26" ht="12" customHeight="1">
       <c r="A17" s="5"/>
       <c r="B17" s="69" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C17" s="70">
         <v>2</v>
       </c>
       <c r="D17" s="71" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
@@ -22798,17 +22797,17 @@
     <row r="18" spans="1:26" ht="12" customHeight="1">
       <c r="A18" s="5"/>
       <c r="B18" s="69" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C18" s="70">
         <v>3</v>
       </c>
       <c r="D18" s="71" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
@@ -22834,17 +22833,17 @@
     <row r="19" spans="1:26" ht="12" customHeight="1">
       <c r="A19" s="5"/>
       <c r="B19" s="69" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C19" s="70">
         <v>4</v>
       </c>
       <c r="D19" s="71" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
@@ -22870,15 +22869,15 @@
     <row r="20" spans="1:26" ht="15" customHeight="1">
       <c r="A20" s="5"/>
       <c r="B20" s="69" t="s">
+        <v>606</v>
+      </c>
+      <c r="C20" s="142" t="s">
         <v>607</v>
       </c>
-      <c r="C20" s="140" t="s">
-        <v>608</v>
-      </c>
-      <c r="D20" s="141"/>
+      <c r="D20" s="143"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
@@ -22904,13 +22903,13 @@
     <row r="21" spans="1:26" ht="15" customHeight="1">
       <c r="A21" s="5"/>
       <c r="B21" s="69" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C21" s="70">
         <v>1</v>
       </c>
       <c r="D21" s="71" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -22938,13 +22937,13 @@
     <row r="22" spans="1:26" ht="12" customHeight="1">
       <c r="A22" s="5"/>
       <c r="B22" s="69" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C22" s="70">
         <v>2</v>
       </c>
       <c r="D22" s="71" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -22972,17 +22971,17 @@
     <row r="23" spans="1:26" ht="12" customHeight="1">
       <c r="A23" s="5"/>
       <c r="B23" s="69" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C23" s="70">
         <v>3</v>
       </c>
       <c r="D23" s="71" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
@@ -23008,17 +23007,17 @@
     <row r="24" spans="1:26" ht="12" customHeight="1">
       <c r="A24" s="5"/>
       <c r="B24" s="69" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C24" s="70">
         <v>4</v>
       </c>
       <c r="D24" s="71" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
@@ -23044,15 +23043,15 @@
     <row r="25" spans="1:26" ht="15" customHeight="1">
       <c r="A25" s="5"/>
       <c r="B25" s="69" t="s">
+        <v>612</v>
+      </c>
+      <c r="C25" s="142" t="s">
         <v>613</v>
       </c>
-      <c r="C25" s="140" t="s">
-        <v>614</v>
-      </c>
-      <c r="D25" s="141"/>
+      <c r="D25" s="143"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
@@ -23078,17 +23077,17 @@
     <row r="26" spans="1:26" ht="15" customHeight="1">
       <c r="A26" s="5"/>
       <c r="B26" s="69" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C26" s="70">
         <v>1</v>
       </c>
       <c r="D26" s="71" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -23114,13 +23113,13 @@
     <row r="27" spans="1:26" ht="12" customHeight="1">
       <c r="A27" s="5"/>
       <c r="B27" s="69" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C27" s="70">
         <v>2</v>
       </c>
       <c r="D27" s="71" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -23148,13 +23147,13 @@
     <row r="28" spans="1:26" ht="12" customHeight="1">
       <c r="A28" s="5"/>
       <c r="B28" s="69" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C28" s="70">
         <v>3</v>
       </c>
       <c r="D28" s="71" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -23182,13 +23181,13 @@
     <row r="29" spans="1:26" ht="12" customHeight="1">
       <c r="A29" s="5"/>
       <c r="B29" s="72" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C29" s="73">
         <v>4</v>
       </c>
       <c r="D29" s="74" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
@@ -23300,7 +23299,7 @@
     <row r="33" spans="1:26" ht="12" customHeight="1">
       <c r="A33" s="5"/>
       <c r="B33" s="64" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -23358,14 +23357,14 @@
     <row r="35" spans="1:26" ht="12" customHeight="1">
       <c r="A35" s="5"/>
       <c r="B35" s="75" t="s">
+        <v>621</v>
+      </c>
+      <c r="C35" s="76" t="s">
         <v>622</v>
-      </c>
-      <c r="C35" s="76" t="s">
-        <v>623</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
@@ -23392,14 +23391,14 @@
     <row r="36" spans="1:26" ht="12" customHeight="1">
       <c r="A36" s="5"/>
       <c r="B36" s="77" t="s">
+        <v>624</v>
+      </c>
+      <c r="C36" s="78" t="s">
         <v>625</v>
-      </c>
-      <c r="C36" s="78" t="s">
-        <v>626</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
@@ -23426,10 +23425,10 @@
     <row r="37" spans="1:26" ht="12" customHeight="1">
       <c r="A37" s="5"/>
       <c r="B37" s="79" t="s">
+        <v>627</v>
+      </c>
+      <c r="C37" s="80" t="s">
         <v>628</v>
-      </c>
-      <c r="C37" s="80" t="s">
-        <v>629</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
@@ -23458,10 +23457,10 @@
     <row r="38" spans="1:26" ht="12" customHeight="1">
       <c r="A38" s="5"/>
       <c r="B38" s="79" t="s">
+        <v>629</v>
+      </c>
+      <c r="C38" s="80" t="s">
         <v>630</v>
-      </c>
-      <c r="C38" s="80" t="s">
-        <v>631</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -23490,14 +23489,14 @@
     <row r="39" spans="1:26" ht="12" customHeight="1">
       <c r="A39" s="5"/>
       <c r="B39" s="81" t="s">
+        <v>631</v>
+      </c>
+      <c r="C39" s="82" t="s">
         <v>632</v>
-      </c>
-      <c r="C39" s="82" t="s">
-        <v>633</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="5" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
@@ -23527,7 +23526,7 @@
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
@@ -23557,7 +23556,7 @@
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
@@ -23587,7 +23586,7 @@
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
@@ -23701,7 +23700,7 @@
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
@@ -23759,7 +23758,7 @@
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
@@ -23817,7 +23816,7 @@
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
@@ -23847,7 +23846,7 @@
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
@@ -23905,7 +23904,7 @@
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
@@ -23935,7 +23934,7 @@
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
@@ -23965,7 +23964,7 @@
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
@@ -23995,7 +23994,7 @@
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
@@ -24025,7 +24024,7 @@
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
@@ -24055,7 +24054,7 @@
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
@@ -24085,7 +24084,7 @@
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
@@ -24115,7 +24114,7 @@
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
@@ -24145,7 +24144,7 @@
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
@@ -24175,7 +24174,7 @@
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
@@ -24202,7 +24201,7 @@
     <row r="63" spans="1:26" ht="12" customHeight="1">
       <c r="A63" s="5"/>
       <c r="B63" s="64" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
@@ -24260,10 +24259,10 @@
     <row r="65" spans="1:26" ht="12" customHeight="1">
       <c r="A65" s="5"/>
       <c r="B65" s="83" t="s">
+        <v>651</v>
+      </c>
+      <c r="C65" s="84" t="s">
         <v>652</v>
-      </c>
-      <c r="C65" s="84" t="s">
-        <v>653</v>
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
@@ -24292,10 +24291,10 @@
     <row r="66" spans="1:26" ht="12" customHeight="1">
       <c r="A66" s="5"/>
       <c r="B66" s="68" t="s">
+        <v>653</v>
+      </c>
+      <c r="C66" s="85" t="s">
         <v>654</v>
-      </c>
-      <c r="C66" s="85" t="s">
-        <v>655</v>
       </c>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
@@ -24324,14 +24323,14 @@
     <row r="67" spans="1:26" ht="12" customHeight="1">
       <c r="A67" s="5"/>
       <c r="B67" s="69" t="s">
+        <v>655</v>
+      </c>
+      <c r="C67" s="71" t="s">
         <v>656</v>
-      </c>
-      <c r="C67" s="71" t="s">
-        <v>657</v>
       </c>
       <c r="D67" s="5"/>
       <c r="E67" s="5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
@@ -24358,10 +24357,10 @@
     <row r="68" spans="1:26" ht="12" customHeight="1">
       <c r="A68" s="5"/>
       <c r="B68" s="69" t="s">
+        <v>657</v>
+      </c>
+      <c r="C68" s="71" t="s">
         <v>658</v>
-      </c>
-      <c r="C68" s="71" t="s">
-        <v>659</v>
       </c>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
@@ -24390,14 +24389,14 @@
     <row r="69" spans="1:26" ht="12" customHeight="1">
       <c r="A69" s="5"/>
       <c r="B69" s="69" t="s">
+        <v>659</v>
+      </c>
+      <c r="C69" s="71" t="s">
         <v>660</v>
-      </c>
-      <c r="C69" s="71" t="s">
-        <v>661</v>
       </c>
       <c r="D69" s="5"/>
       <c r="E69" s="5" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
@@ -24424,10 +24423,10 @@
     <row r="70" spans="1:26" ht="12" customHeight="1">
       <c r="A70" s="5"/>
       <c r="B70" s="69" t="s">
+        <v>662</v>
+      </c>
+      <c r="C70" s="71" t="s">
         <v>663</v>
-      </c>
-      <c r="C70" s="71" t="s">
-        <v>664</v>
       </c>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
@@ -24456,14 +24455,14 @@
     <row r="71" spans="1:26" ht="12" customHeight="1">
       <c r="A71" s="5"/>
       <c r="B71" s="69" t="s">
+        <v>664</v>
+      </c>
+      <c r="C71" s="71" t="s">
         <v>665</v>
-      </c>
-      <c r="C71" s="71" t="s">
-        <v>666</v>
       </c>
       <c r="D71" s="5"/>
       <c r="E71" s="5" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
@@ -24490,10 +24489,10 @@
     <row r="72" spans="1:26" ht="12" customHeight="1">
       <c r="A72" s="5"/>
       <c r="B72" s="69" t="s">
+        <v>667</v>
+      </c>
+      <c r="C72" s="71" t="s">
         <v>668</v>
-      </c>
-      <c r="C72" s="71" t="s">
-        <v>669</v>
       </c>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -24522,10 +24521,10 @@
     <row r="73" spans="1:26" ht="12" customHeight="1">
       <c r="A73" s="5"/>
       <c r="B73" s="69" t="s">
+        <v>669</v>
+      </c>
+      <c r="C73" s="71" t="s">
         <v>670</v>
-      </c>
-      <c r="C73" s="71" t="s">
-        <v>671</v>
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
@@ -24554,10 +24553,10 @@
     <row r="74" spans="1:26" ht="12" customHeight="1">
       <c r="A74" s="5"/>
       <c r="B74" s="69" t="s">
+        <v>671</v>
+      </c>
+      <c r="C74" s="71" t="s">
         <v>672</v>
-      </c>
-      <c r="C74" s="71" t="s">
-        <v>673</v>
       </c>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
@@ -24586,10 +24585,10 @@
     <row r="75" spans="1:26" ht="12" customHeight="1">
       <c r="A75" s="5"/>
       <c r="B75" s="69" t="s">
+        <v>673</v>
+      </c>
+      <c r="C75" s="71" t="s">
         <v>674</v>
-      </c>
-      <c r="C75" s="71" t="s">
-        <v>675</v>
       </c>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
@@ -24618,10 +24617,10 @@
     <row r="76" spans="1:26" ht="12" customHeight="1">
       <c r="A76" s="5"/>
       <c r="B76" s="69" t="s">
+        <v>675</v>
+      </c>
+      <c r="C76" s="71" t="s">
         <v>676</v>
-      </c>
-      <c r="C76" s="71" t="s">
-        <v>677</v>
       </c>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
@@ -24650,10 +24649,10 @@
     <row r="77" spans="1:26" ht="12" customHeight="1">
       <c r="A77" s="5"/>
       <c r="B77" s="69" t="s">
+        <v>677</v>
+      </c>
+      <c r="C77" s="71" t="s">
         <v>678</v>
-      </c>
-      <c r="C77" s="71" t="s">
-        <v>679</v>
       </c>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
@@ -24682,10 +24681,10 @@
     <row r="78" spans="1:26" ht="12" customHeight="1">
       <c r="A78" s="5"/>
       <c r="B78" s="69" t="s">
+        <v>679</v>
+      </c>
+      <c r="C78" s="71" t="s">
         <v>680</v>
-      </c>
-      <c r="C78" s="71" t="s">
-        <v>681</v>
       </c>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
@@ -24714,10 +24713,10 @@
     <row r="79" spans="1:26" ht="12" customHeight="1">
       <c r="A79" s="5"/>
       <c r="B79" s="69" t="s">
+        <v>681</v>
+      </c>
+      <c r="C79" s="71" t="s">
         <v>682</v>
-      </c>
-      <c r="C79" s="71" t="s">
-        <v>683</v>
       </c>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
@@ -24746,10 +24745,10 @@
     <row r="80" spans="1:26" ht="12" customHeight="1">
       <c r="A80" s="5"/>
       <c r="B80" s="69" t="s">
+        <v>683</v>
+      </c>
+      <c r="C80" s="71" t="s">
         <v>684</v>
-      </c>
-      <c r="C80" s="71" t="s">
-        <v>685</v>
       </c>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
@@ -24778,10 +24777,10 @@
     <row r="81" spans="1:26" ht="12" customHeight="1">
       <c r="A81" s="5"/>
       <c r="B81" s="69" t="s">
+        <v>685</v>
+      </c>
+      <c r="C81" s="71" t="s">
         <v>686</v>
-      </c>
-      <c r="C81" s="71" t="s">
-        <v>687</v>
       </c>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
@@ -24810,10 +24809,10 @@
     <row r="82" spans="1:26" ht="12" customHeight="1">
       <c r="A82" s="5"/>
       <c r="B82" s="69" t="s">
+        <v>687</v>
+      </c>
+      <c r="C82" s="71" t="s">
         <v>688</v>
-      </c>
-      <c r="C82" s="71" t="s">
-        <v>689</v>
       </c>
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
@@ -24842,10 +24841,10 @@
     <row r="83" spans="1:26" ht="12" customHeight="1">
       <c r="A83" s="5"/>
       <c r="B83" s="69" t="s">
+        <v>689</v>
+      </c>
+      <c r="C83" s="71" t="s">
         <v>690</v>
-      </c>
-      <c r="C83" s="71" t="s">
-        <v>691</v>
       </c>
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
@@ -24874,10 +24873,10 @@
     <row r="84" spans="1:26" ht="12" customHeight="1">
       <c r="A84" s="5"/>
       <c r="B84" s="69" t="s">
+        <v>691</v>
+      </c>
+      <c r="C84" s="71" t="s">
         <v>692</v>
-      </c>
-      <c r="C84" s="71" t="s">
-        <v>693</v>
       </c>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
@@ -24906,10 +24905,10 @@
     <row r="85" spans="1:26" ht="12" customHeight="1">
       <c r="A85" s="5"/>
       <c r="B85" s="69" t="s">
+        <v>693</v>
+      </c>
+      <c r="C85" s="71" t="s">
         <v>694</v>
-      </c>
-      <c r="C85" s="71" t="s">
-        <v>695</v>
       </c>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
@@ -24938,10 +24937,10 @@
     <row r="86" spans="1:26" ht="12" customHeight="1">
       <c r="A86" s="5"/>
       <c r="B86" s="69" t="s">
+        <v>695</v>
+      </c>
+      <c r="C86" s="71" t="s">
         <v>696</v>
-      </c>
-      <c r="C86" s="71" t="s">
-        <v>697</v>
       </c>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
@@ -24970,10 +24969,10 @@
     <row r="87" spans="1:26" ht="12" customHeight="1">
       <c r="A87" s="5"/>
       <c r="B87" s="69" t="s">
+        <v>697</v>
+      </c>
+      <c r="C87" s="71" t="s">
         <v>698</v>
-      </c>
-      <c r="C87" s="71" t="s">
-        <v>699</v>
       </c>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
@@ -25002,10 +25001,10 @@
     <row r="88" spans="1:26" ht="12" customHeight="1">
       <c r="A88" s="5"/>
       <c r="B88" s="69" t="s">
+        <v>699</v>
+      </c>
+      <c r="C88" s="71" t="s">
         <v>700</v>
-      </c>
-      <c r="C88" s="71" t="s">
-        <v>701</v>
       </c>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
@@ -25034,10 +25033,10 @@
     <row r="89" spans="1:26" ht="12" customHeight="1">
       <c r="A89" s="5"/>
       <c r="B89" s="69" t="s">
+        <v>701</v>
+      </c>
+      <c r="C89" s="71" t="s">
         <v>702</v>
-      </c>
-      <c r="C89" s="71" t="s">
-        <v>703</v>
       </c>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
@@ -25066,10 +25065,10 @@
     <row r="90" spans="1:26" ht="12" customHeight="1">
       <c r="A90" s="5"/>
       <c r="B90" s="69" t="s">
+        <v>703</v>
+      </c>
+      <c r="C90" s="71" t="s">
         <v>704</v>
-      </c>
-      <c r="C90" s="71" t="s">
-        <v>705</v>
       </c>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
@@ -25098,10 +25097,10 @@
     <row r="91" spans="1:26" ht="12" customHeight="1">
       <c r="A91" s="5"/>
       <c r="B91" s="69" t="s">
+        <v>705</v>
+      </c>
+      <c r="C91" s="71" t="s">
         <v>706</v>
-      </c>
-      <c r="C91" s="71" t="s">
-        <v>707</v>
       </c>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
@@ -25130,10 +25129,10 @@
     <row r="92" spans="1:26" ht="12" customHeight="1">
       <c r="A92" s="5"/>
       <c r="B92" s="69" t="s">
+        <v>707</v>
+      </c>
+      <c r="C92" s="71" t="s">
         <v>708</v>
-      </c>
-      <c r="C92" s="71" t="s">
-        <v>709</v>
       </c>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
@@ -25162,10 +25161,10 @@
     <row r="93" spans="1:26" ht="12" customHeight="1">
       <c r="A93" s="5"/>
       <c r="B93" s="69" t="s">
+        <v>709</v>
+      </c>
+      <c r="C93" s="71" t="s">
         <v>710</v>
-      </c>
-      <c r="C93" s="71" t="s">
-        <v>711</v>
       </c>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
@@ -25194,10 +25193,10 @@
     <row r="94" spans="1:26" ht="12" customHeight="1">
       <c r="A94" s="5"/>
       <c r="B94" s="69" t="s">
+        <v>711</v>
+      </c>
+      <c r="C94" s="71" t="s">
         <v>712</v>
-      </c>
-      <c r="C94" s="71" t="s">
-        <v>713</v>
       </c>
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
@@ -25226,10 +25225,10 @@
     <row r="95" spans="1:26" ht="12" customHeight="1">
       <c r="A95" s="5"/>
       <c r="B95" s="69" t="s">
+        <v>713</v>
+      </c>
+      <c r="C95" s="71" t="s">
         <v>714</v>
-      </c>
-      <c r="C95" s="71" t="s">
-        <v>715</v>
       </c>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
@@ -25258,10 +25257,10 @@
     <row r="96" spans="1:26" ht="12" customHeight="1">
       <c r="A96" s="5"/>
       <c r="B96" s="69" t="s">
+        <v>715</v>
+      </c>
+      <c r="C96" s="71" t="s">
         <v>716</v>
-      </c>
-      <c r="C96" s="71" t="s">
-        <v>717</v>
       </c>
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
@@ -25290,10 +25289,10 @@
     <row r="97" spans="1:26" ht="12" customHeight="1">
       <c r="A97" s="5"/>
       <c r="B97" s="69" t="s">
+        <v>717</v>
+      </c>
+      <c r="C97" s="71" t="s">
         <v>718</v>
-      </c>
-      <c r="C97" s="71" t="s">
-        <v>719</v>
       </c>
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
@@ -25322,10 +25321,10 @@
     <row r="98" spans="1:26" ht="12" customHeight="1">
       <c r="A98" s="5"/>
       <c r="B98" s="69" t="s">
+        <v>719</v>
+      </c>
+      <c r="C98" s="71" t="s">
         <v>720</v>
-      </c>
-      <c r="C98" s="71" t="s">
-        <v>721</v>
       </c>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
@@ -25354,10 +25353,10 @@
     <row r="99" spans="1:26" ht="12" customHeight="1">
       <c r="A99" s="5"/>
       <c r="B99" s="69" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C99" s="71" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D99" s="5"/>
       <c r="E99" s="5"/>
@@ -25386,10 +25385,10 @@
     <row r="100" spans="1:26" ht="12" customHeight="1">
       <c r="A100" s="5"/>
       <c r="B100" s="69" t="s">
+        <v>722</v>
+      </c>
+      <c r="C100" s="71" t="s">
         <v>723</v>
-      </c>
-      <c r="C100" s="71" t="s">
-        <v>724</v>
       </c>
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
@@ -25418,10 +25417,10 @@
     <row r="101" spans="1:26" ht="12" customHeight="1">
       <c r="A101" s="5"/>
       <c r="B101" s="69" t="s">
+        <v>724</v>
+      </c>
+      <c r="C101" s="71" t="s">
         <v>725</v>
-      </c>
-      <c r="C101" s="71" t="s">
-        <v>726</v>
       </c>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
@@ -25450,10 +25449,10 @@
     <row r="102" spans="1:26" ht="12" customHeight="1">
       <c r="A102" s="5"/>
       <c r="B102" s="69" t="s">
+        <v>726</v>
+      </c>
+      <c r="C102" s="71" t="s">
         <v>727</v>
-      </c>
-      <c r="C102" s="71" t="s">
-        <v>728</v>
       </c>
       <c r="D102" s="5"/>
       <c r="E102" s="5"/>
@@ -25482,10 +25481,10 @@
     <row r="103" spans="1:26" ht="12" customHeight="1">
       <c r="A103" s="5"/>
       <c r="B103" s="69" t="s">
+        <v>728</v>
+      </c>
+      <c r="C103" s="71" t="s">
         <v>729</v>
-      </c>
-      <c r="C103" s="71" t="s">
-        <v>730</v>
       </c>
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
@@ -25514,10 +25513,10 @@
     <row r="104" spans="1:26" ht="12" customHeight="1">
       <c r="A104" s="5"/>
       <c r="B104" s="69" t="s">
+        <v>730</v>
+      </c>
+      <c r="C104" s="71" t="s">
         <v>731</v>
-      </c>
-      <c r="C104" s="71" t="s">
-        <v>732</v>
       </c>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
@@ -25546,10 +25545,10 @@
     <row r="105" spans="1:26" ht="12" customHeight="1">
       <c r="A105" s="5"/>
       <c r="B105" s="69" t="s">
+        <v>732</v>
+      </c>
+      <c r="C105" s="71" t="s">
         <v>733</v>
-      </c>
-      <c r="C105" s="71" t="s">
-        <v>734</v>
       </c>
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
@@ -25578,10 +25577,10 @@
     <row r="106" spans="1:26" ht="12" customHeight="1">
       <c r="A106" s="5"/>
       <c r="B106" s="69" t="s">
+        <v>734</v>
+      </c>
+      <c r="C106" s="71" t="s">
         <v>735</v>
-      </c>
-      <c r="C106" s="71" t="s">
-        <v>736</v>
       </c>
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
@@ -25610,10 +25609,10 @@
     <row r="107" spans="1:26" ht="12" customHeight="1">
       <c r="A107" s="5"/>
       <c r="B107" s="69" t="s">
+        <v>736</v>
+      </c>
+      <c r="C107" s="71" t="s">
         <v>737</v>
-      </c>
-      <c r="C107" s="71" t="s">
-        <v>738</v>
       </c>
       <c r="D107" s="5"/>
       <c r="E107" s="5"/>
@@ -25642,10 +25641,10 @@
     <row r="108" spans="1:26" ht="12" customHeight="1">
       <c r="A108" s="5"/>
       <c r="B108" s="69" t="s">
+        <v>738</v>
+      </c>
+      <c r="C108" s="71" t="s">
         <v>739</v>
-      </c>
-      <c r="C108" s="71" t="s">
-        <v>740</v>
       </c>
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
@@ -25674,10 +25673,10 @@
     <row r="109" spans="1:26" ht="12" customHeight="1">
       <c r="A109" s="5"/>
       <c r="B109" s="69" t="s">
+        <v>740</v>
+      </c>
+      <c r="C109" s="71" t="s">
         <v>741</v>
-      </c>
-      <c r="C109" s="71" t="s">
-        <v>742</v>
       </c>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
@@ -25706,10 +25705,10 @@
     <row r="110" spans="1:26" ht="12" customHeight="1">
       <c r="A110" s="5"/>
       <c r="B110" s="69" t="s">
+        <v>742</v>
+      </c>
+      <c r="C110" s="71" t="s">
         <v>743</v>
-      </c>
-      <c r="C110" s="71" t="s">
-        <v>744</v>
       </c>
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
@@ -25738,10 +25737,10 @@
     <row r="111" spans="1:26" ht="12" customHeight="1">
       <c r="A111" s="5"/>
       <c r="B111" s="69" t="s">
+        <v>744</v>
+      </c>
+      <c r="C111" s="71" t="s">
         <v>745</v>
-      </c>
-      <c r="C111" s="71" t="s">
-        <v>746</v>
       </c>
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
@@ -25770,10 +25769,10 @@
     <row r="112" spans="1:26" ht="12" customHeight="1">
       <c r="A112" s="5"/>
       <c r="B112" s="69" t="s">
+        <v>746</v>
+      </c>
+      <c r="C112" s="71" t="s">
         <v>747</v>
-      </c>
-      <c r="C112" s="71" t="s">
-        <v>748</v>
       </c>
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
@@ -25802,10 +25801,10 @@
     <row r="113" spans="1:26" ht="12" customHeight="1">
       <c r="A113" s="5"/>
       <c r="B113" s="69" t="s">
+        <v>748</v>
+      </c>
+      <c r="C113" s="71" t="s">
         <v>749</v>
-      </c>
-      <c r="C113" s="71" t="s">
-        <v>750</v>
       </c>
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
@@ -25834,10 +25833,10 @@
     <row r="114" spans="1:26" ht="12" customHeight="1">
       <c r="A114" s="5"/>
       <c r="B114" s="69" t="s">
+        <v>750</v>
+      </c>
+      <c r="C114" s="71" t="s">
         <v>751</v>
-      </c>
-      <c r="C114" s="71" t="s">
-        <v>752</v>
       </c>
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
@@ -25866,10 +25865,10 @@
     <row r="115" spans="1:26" ht="12" customHeight="1">
       <c r="A115" s="5"/>
       <c r="B115" s="69" t="s">
+        <v>752</v>
+      </c>
+      <c r="C115" s="71" t="s">
         <v>753</v>
-      </c>
-      <c r="C115" s="71" t="s">
-        <v>754</v>
       </c>
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
@@ -25898,10 +25897,10 @@
     <row r="116" spans="1:26" ht="12" customHeight="1">
       <c r="A116" s="5"/>
       <c r="B116" s="69" t="s">
+        <v>754</v>
+      </c>
+      <c r="C116" s="71" t="s">
         <v>755</v>
-      </c>
-      <c r="C116" s="71" t="s">
-        <v>756</v>
       </c>
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
@@ -25930,10 +25929,10 @@
     <row r="117" spans="1:26" ht="12" customHeight="1">
       <c r="A117" s="5"/>
       <c r="B117" s="69" t="s">
+        <v>756</v>
+      </c>
+      <c r="C117" s="71" t="s">
         <v>757</v>
-      </c>
-      <c r="C117" s="71" t="s">
-        <v>758</v>
       </c>
       <c r="D117" s="5"/>
       <c r="E117" s="5"/>
@@ -25962,10 +25961,10 @@
     <row r="118" spans="1:26" ht="12" customHeight="1">
       <c r="A118" s="5"/>
       <c r="B118" s="69" t="s">
+        <v>758</v>
+      </c>
+      <c r="C118" s="71" t="s">
         <v>759</v>
-      </c>
-      <c r="C118" s="71" t="s">
-        <v>760</v>
       </c>
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
@@ -25994,10 +25993,10 @@
     <row r="119" spans="1:26" ht="12" customHeight="1">
       <c r="A119" s="5"/>
       <c r="B119" s="69" t="s">
+        <v>760</v>
+      </c>
+      <c r="C119" s="71" t="s">
         <v>761</v>
-      </c>
-      <c r="C119" s="71" t="s">
-        <v>762</v>
       </c>
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
@@ -26026,10 +26025,10 @@
     <row r="120" spans="1:26" ht="12" customHeight="1">
       <c r="A120" s="5"/>
       <c r="B120" s="69" t="s">
+        <v>762</v>
+      </c>
+      <c r="C120" s="71" t="s">
         <v>763</v>
-      </c>
-      <c r="C120" s="71" t="s">
-        <v>764</v>
       </c>
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
@@ -26058,10 +26057,10 @@
     <row r="121" spans="1:26" ht="12" customHeight="1">
       <c r="A121" s="5"/>
       <c r="B121" s="69" t="s">
+        <v>764</v>
+      </c>
+      <c r="C121" s="71" t="s">
         <v>765</v>
-      </c>
-      <c r="C121" s="71" t="s">
-        <v>766</v>
       </c>
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
@@ -26090,10 +26089,10 @@
     <row r="122" spans="1:26" ht="12" customHeight="1">
       <c r="A122" s="5"/>
       <c r="B122" s="69" t="s">
+        <v>766</v>
+      </c>
+      <c r="C122" s="71" t="s">
         <v>767</v>
-      </c>
-      <c r="C122" s="71" t="s">
-        <v>768</v>
       </c>
       <c r="D122" s="5"/>
       <c r="E122" s="5"/>
@@ -26122,10 +26121,10 @@
     <row r="123" spans="1:26" ht="12" customHeight="1">
       <c r="A123" s="5"/>
       <c r="B123" s="69" t="s">
+        <v>768</v>
+      </c>
+      <c r="C123" s="71" t="s">
         <v>769</v>
-      </c>
-      <c r="C123" s="71" t="s">
-        <v>770</v>
       </c>
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
@@ -26154,10 +26153,10 @@
     <row r="124" spans="1:26" ht="12" customHeight="1">
       <c r="A124" s="5"/>
       <c r="B124" s="69" t="s">
+        <v>770</v>
+      </c>
+      <c r="C124" s="71" t="s">
         <v>771</v>
-      </c>
-      <c r="C124" s="71" t="s">
-        <v>772</v>
       </c>
       <c r="D124" s="5"/>
       <c r="E124" s="5"/>
@@ -26186,10 +26185,10 @@
     <row r="125" spans="1:26" ht="12" customHeight="1">
       <c r="A125" s="5"/>
       <c r="B125" s="69" t="s">
+        <v>772</v>
+      </c>
+      <c r="C125" s="71" t="s">
         <v>773</v>
-      </c>
-      <c r="C125" s="71" t="s">
-        <v>774</v>
       </c>
       <c r="D125" s="5"/>
       <c r="E125" s="5"/>
@@ -26218,10 +26217,10 @@
     <row r="126" spans="1:26" ht="12" customHeight="1">
       <c r="A126" s="5"/>
       <c r="B126" s="69" t="s">
+        <v>774</v>
+      </c>
+      <c r="C126" s="71" t="s">
         <v>775</v>
-      </c>
-      <c r="C126" s="71" t="s">
-        <v>776</v>
       </c>
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
@@ -26250,10 +26249,10 @@
     <row r="127" spans="1:26" ht="12" customHeight="1">
       <c r="A127" s="5"/>
       <c r="B127" s="69" t="s">
+        <v>776</v>
+      </c>
+      <c r="C127" s="71" t="s">
         <v>777</v>
-      </c>
-      <c r="C127" s="71" t="s">
-        <v>778</v>
       </c>
       <c r="D127" s="5"/>
       <c r="E127" s="5"/>
@@ -26282,10 +26281,10 @@
     <row r="128" spans="1:26" ht="12" customHeight="1">
       <c r="A128" s="5"/>
       <c r="B128" s="69" t="s">
+        <v>778</v>
+      </c>
+      <c r="C128" s="71" t="s">
         <v>779</v>
-      </c>
-      <c r="C128" s="71" t="s">
-        <v>780</v>
       </c>
       <c r="D128" s="5"/>
       <c r="E128" s="5"/>
@@ -26314,10 +26313,10 @@
     <row r="129" spans="1:26" ht="12" customHeight="1">
       <c r="A129" s="5"/>
       <c r="B129" s="69" t="s">
+        <v>780</v>
+      </c>
+      <c r="C129" s="71" t="s">
         <v>781</v>
-      </c>
-      <c r="C129" s="71" t="s">
-        <v>782</v>
       </c>
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
@@ -26346,10 +26345,10 @@
     <row r="130" spans="1:26" ht="12" customHeight="1">
       <c r="A130" s="5"/>
       <c r="B130" s="69" t="s">
+        <v>782</v>
+      </c>
+      <c r="C130" s="71" t="s">
         <v>783</v>
-      </c>
-      <c r="C130" s="71" t="s">
-        <v>784</v>
       </c>
       <c r="D130" s="5"/>
       <c r="E130" s="5"/>
@@ -26378,10 +26377,10 @@
     <row r="131" spans="1:26" ht="12" customHeight="1">
       <c r="A131" s="5"/>
       <c r="B131" s="69" t="s">
+        <v>784</v>
+      </c>
+      <c r="C131" s="71" t="s">
         <v>785</v>
-      </c>
-      <c r="C131" s="71" t="s">
-        <v>786</v>
       </c>
       <c r="D131" s="5"/>
       <c r="E131" s="5"/>
@@ -26410,10 +26409,10 @@
     <row r="132" spans="1:26" ht="12" customHeight="1">
       <c r="A132" s="5"/>
       <c r="B132" s="69" t="s">
+        <v>786</v>
+      </c>
+      <c r="C132" s="71" t="s">
         <v>787</v>
-      </c>
-      <c r="C132" s="71" t="s">
-        <v>788</v>
       </c>
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>
@@ -26442,10 +26441,10 @@
     <row r="133" spans="1:26" ht="12" customHeight="1">
       <c r="A133" s="5"/>
       <c r="B133" s="69" t="s">
+        <v>788</v>
+      </c>
+      <c r="C133" s="71" t="s">
         <v>789</v>
-      </c>
-      <c r="C133" s="71" t="s">
-        <v>790</v>
       </c>
       <c r="D133" s="5"/>
       <c r="E133" s="5"/>
@@ -26474,10 +26473,10 @@
     <row r="134" spans="1:26" ht="12" customHeight="1">
       <c r="A134" s="5"/>
       <c r="B134" s="69" t="s">
+        <v>790</v>
+      </c>
+      <c r="C134" s="71" t="s">
         <v>791</v>
-      </c>
-      <c r="C134" s="71" t="s">
-        <v>792</v>
       </c>
       <c r="D134" s="5"/>
       <c r="E134" s="5"/>
@@ -26506,10 +26505,10 @@
     <row r="135" spans="1:26" ht="12" customHeight="1">
       <c r="A135" s="5"/>
       <c r="B135" s="69" t="s">
+        <v>792</v>
+      </c>
+      <c r="C135" s="71" t="s">
         <v>793</v>
-      </c>
-      <c r="C135" s="71" t="s">
-        <v>794</v>
       </c>
       <c r="D135" s="5"/>
       <c r="E135" s="5"/>
@@ -26538,10 +26537,10 @@
     <row r="136" spans="1:26" ht="12" customHeight="1">
       <c r="A136" s="5"/>
       <c r="B136" s="69" t="s">
+        <v>794</v>
+      </c>
+      <c r="C136" s="71" t="s">
         <v>795</v>
-      </c>
-      <c r="C136" s="71" t="s">
-        <v>796</v>
       </c>
       <c r="D136" s="5"/>
       <c r="E136" s="5"/>
@@ -26570,10 +26569,10 @@
     <row r="137" spans="1:26" ht="12" customHeight="1">
       <c r="A137" s="5"/>
       <c r="B137" s="86" t="s">
+        <v>796</v>
+      </c>
+      <c r="C137" s="87" t="s">
         <v>797</v>
-      </c>
-      <c r="C137" s="87" t="s">
-        <v>798</v>
       </c>
       <c r="D137" s="5"/>
       <c r="E137" s="5"/>
@@ -26602,10 +26601,10 @@
     <row r="138" spans="1:26" ht="12" customHeight="1">
       <c r="A138" s="5"/>
       <c r="B138" s="88" t="s">
+        <v>798</v>
+      </c>
+      <c r="C138" s="87" t="s">
         <v>799</v>
-      </c>
-      <c r="C138" s="87" t="s">
-        <v>800</v>
       </c>
       <c r="D138" s="5"/>
       <c r="E138" s="5"/>
@@ -26634,10 +26633,10 @@
     <row r="139" spans="1:26" ht="12" customHeight="1">
       <c r="A139" s="5"/>
       <c r="B139" s="88" t="s">
+        <v>800</v>
+      </c>
+      <c r="C139" s="87" t="s">
         <v>801</v>
-      </c>
-      <c r="C139" s="87" t="s">
-        <v>802</v>
       </c>
       <c r="D139" s="5"/>
       <c r="E139" s="5"/>
@@ -26666,10 +26665,10 @@
     <row r="140" spans="1:26" ht="12" customHeight="1">
       <c r="A140" s="5"/>
       <c r="B140" s="88" t="s">
+        <v>802</v>
+      </c>
+      <c r="C140" s="87" t="s">
         <v>803</v>
-      </c>
-      <c r="C140" s="87" t="s">
-        <v>804</v>
       </c>
       <c r="D140" s="5"/>
       <c r="E140" s="5"/>
@@ -26698,13 +26697,13 @@
     <row r="141" spans="1:26" ht="12" customHeight="1">
       <c r="A141" s="5"/>
       <c r="B141" s="89" t="s">
+        <v>804</v>
+      </c>
+      <c r="C141" s="90" t="s">
         <v>805</v>
       </c>
-      <c r="C141" s="90" t="s">
+      <c r="D141" s="5" t="s">
         <v>806</v>
-      </c>
-      <c r="D141" s="5" t="s">
-        <v>807</v>
       </c>
       <c r="E141" s="5"/>
       <c r="F141" s="5"/>
@@ -26732,13 +26731,13 @@
     <row r="142" spans="1:26" ht="12" customHeight="1">
       <c r="A142" s="5"/>
       <c r="B142" s="91" t="s">
+        <v>807</v>
+      </c>
+      <c r="C142" s="92" t="s">
         <v>808</v>
       </c>
-      <c r="C142" s="92" t="s">
+      <c r="D142" s="5" t="s">
         <v>809</v>
-      </c>
-      <c r="D142" s="5" t="s">
-        <v>810</v>
       </c>
       <c r="E142" s="5"/>
       <c r="F142" s="5"/>
@@ -26850,7 +26849,7 @@
     <row r="146" spans="1:26" ht="12" customHeight="1">
       <c r="A146" s="5"/>
       <c r="B146" s="64" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
@@ -26908,13 +26907,13 @@
     <row r="148" spans="1:26" ht="12.75" customHeight="1">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
-      <c r="C148" s="136" t="s">
-        <v>812</v>
-      </c>
-      <c r="D148" s="137"/>
-      <c r="E148" s="137"/>
-      <c r="F148" s="137"/>
-      <c r="G148" s="137"/>
+      <c r="C148" s="138" t="s">
+        <v>811</v>
+      </c>
+      <c r="D148" s="139"/>
+      <c r="E148" s="139"/>
+      <c r="F148" s="139"/>
+      <c r="G148" s="139"/>
       <c r="H148" s="5"/>
       <c r="I148" s="5"/>
       <c r="J148" s="5"/>
@@ -26938,13 +26937,13 @@
     <row r="149" spans="1:26" ht="75.75" customHeight="1">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
-      <c r="C149" s="136" t="s">
-        <v>813</v>
-      </c>
-      <c r="D149" s="137"/>
-      <c r="E149" s="137"/>
-      <c r="F149" s="137"/>
-      <c r="G149" s="137"/>
+      <c r="C149" s="138" t="s">
+        <v>812</v>
+      </c>
+      <c r="D149" s="139"/>
+      <c r="E149" s="139"/>
+      <c r="F149" s="139"/>
+      <c r="G149" s="139"/>
       <c r="H149" s="5"/>
       <c r="I149" s="5"/>
       <c r="J149" s="5"/>
@@ -26997,7 +26996,7 @@
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D151" s="5"/>
       <c r="E151" s="5"/>
@@ -27055,7 +27054,7 @@
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D153" s="5"/>
       <c r="E153" s="5"/>
@@ -27113,7 +27112,7 @@
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D155" s="5"/>
       <c r="E155" s="5"/>
@@ -27143,7 +27142,7 @@
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D156" s="5"/>
       <c r="E156" s="5"/>
@@ -27228,7 +27227,7 @@
     <row r="159" spans="1:26" ht="12" customHeight="1">
       <c r="A159" s="5"/>
       <c r="B159" s="64" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C159" s="5"/>
       <c r="D159" s="5"/>
@@ -27287,7 +27286,7 @@
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D161" s="5"/>
       <c r="E161" s="5"/>
@@ -27373,7 +27372,7 @@
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D164" s="5"/>
       <c r="E164" s="5"/>
@@ -27431,7 +27430,7 @@
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D166" s="5"/>
       <c r="E166" s="5"/>
@@ -27489,7 +27488,7 @@
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D168" s="5"/>
       <c r="E168" s="5"/>
@@ -27546,7 +27545,7 @@
     <row r="170" spans="1:26" ht="12" customHeight="1">
       <c r="A170" s="5"/>
       <c r="B170" s="94" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C170" s="5"/>
       <c r="D170" s="5"/>
@@ -27604,19 +27603,19 @@
     <row r="172" spans="1:26" ht="12" customHeight="1">
       <c r="A172" s="5"/>
       <c r="B172" s="96" t="s">
+        <v>821</v>
+      </c>
+      <c r="C172" s="97" t="s">
         <v>822</v>
       </c>
-      <c r="C172" s="97" t="s">
+      <c r="D172" s="97" t="s">
         <v>823</v>
       </c>
-      <c r="D172" s="97" t="s">
+      <c r="E172" s="97" t="s">
         <v>824</v>
       </c>
-      <c r="E172" s="97" t="s">
+      <c r="F172" s="98" t="s">
         <v>825</v>
-      </c>
-      <c r="F172" s="98" t="s">
-        <v>826</v>
       </c>
       <c r="G172" s="5"/>
       <c r="H172" s="5"/>
@@ -27642,13 +27641,13 @@
     <row r="173" spans="1:26" ht="12" customHeight="1">
       <c r="A173" s="5"/>
       <c r="B173" s="99" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C173" s="100">
         <v>1</v>
       </c>
       <c r="D173" s="100" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E173" s="101">
         <v>7500000</v>
@@ -27678,13 +27677,13 @@
     <row r="174" spans="1:26" ht="12" customHeight="1">
       <c r="A174" s="5"/>
       <c r="B174" s="103" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C174" s="104">
         <v>2</v>
       </c>
       <c r="D174" s="104" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E174" s="105">
         <v>19000000</v>
@@ -27692,7 +27691,7 @@
       <c r="F174" s="106"/>
       <c r="G174" s="5"/>
       <c r="H174" s="107" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="I174" s="5"/>
       <c r="J174" s="5"/>
@@ -27716,13 +27715,13 @@
     <row r="175" spans="1:26" ht="12" customHeight="1">
       <c r="A175" s="5"/>
       <c r="B175" s="103" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C175" s="104">
         <v>3</v>
       </c>
       <c r="D175" s="104" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E175" s="105">
         <v>19000000</v>
@@ -27752,13 +27751,13 @@
     <row r="176" spans="1:26" ht="12" customHeight="1">
       <c r="A176" s="5"/>
       <c r="B176" s="103" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C176" s="104">
         <v>1</v>
       </c>
       <c r="D176" s="104" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E176" s="105">
         <v>36500000</v>
@@ -27766,7 +27765,7 @@
       <c r="F176" s="106"/>
       <c r="G176" s="5"/>
       <c r="H176" s="5" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="I176" s="5"/>
       <c r="J176" s="5"/>
@@ -27790,13 +27789,13 @@
     <row r="177" spans="1:26" ht="12" customHeight="1">
       <c r="A177" s="5"/>
       <c r="B177" s="103" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C177" s="104">
         <v>2</v>
       </c>
       <c r="D177" s="104" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E177" s="105">
         <v>27500000</v>
@@ -27826,13 +27825,13 @@
     <row r="178" spans="1:26" ht="12" customHeight="1">
       <c r="A178" s="5"/>
       <c r="B178" s="103" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C178" s="104">
         <v>1</v>
       </c>
       <c r="D178" s="104" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E178" s="105">
         <v>15000000</v>
@@ -27840,7 +27839,7 @@
       <c r="F178" s="106"/>
       <c r="G178" s="5"/>
       <c r="H178" s="5" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="I178" s="5"/>
       <c r="J178" s="5"/>
@@ -27864,13 +27863,13 @@
     <row r="179" spans="1:26" ht="12" customHeight="1">
       <c r="A179" s="5"/>
       <c r="B179" s="103" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C179" s="104">
         <v>2</v>
       </c>
       <c r="D179" s="104" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E179" s="105">
         <v>15000000</v>
@@ -27878,7 +27877,7 @@
       <c r="F179" s="106"/>
       <c r="G179" s="5"/>
       <c r="H179" s="5" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="I179" s="5"/>
       <c r="J179" s="5"/>
@@ -27902,13 +27901,13 @@
     <row r="180" spans="1:26" ht="12" customHeight="1">
       <c r="A180" s="5"/>
       <c r="B180" s="103" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C180" s="104">
         <v>1</v>
       </c>
       <c r="D180" s="104" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E180" s="105">
         <v>15000000</v>
@@ -27916,7 +27915,7 @@
       <c r="F180" s="106"/>
       <c r="G180" s="5"/>
       <c r="H180" s="5" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="I180" s="5"/>
       <c r="J180" s="5"/>
@@ -27940,13 +27939,13 @@
     <row r="181" spans="1:26" ht="12" customHeight="1">
       <c r="A181" s="5"/>
       <c r="B181" s="103" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C181" s="104">
         <v>2</v>
       </c>
       <c r="D181" s="104" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E181" s="105">
         <v>27500000</v>
@@ -27954,7 +27953,7 @@
       <c r="F181" s="106"/>
       <c r="G181" s="5"/>
       <c r="H181" s="5" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="I181" s="5"/>
       <c r="J181" s="5"/>
@@ -27984,7 +27983,7 @@
         <v>1</v>
       </c>
       <c r="D182" s="104" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E182" s="105">
         <v>27500000</v>
@@ -27992,7 +27991,7 @@
       <c r="F182" s="106"/>
       <c r="G182" s="5"/>
       <c r="H182" s="5" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="I182" s="5"/>
       <c r="J182" s="5"/>
@@ -28022,7 +28021,7 @@
         <v>2</v>
       </c>
       <c r="D183" s="104" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E183" s="105">
         <v>38500000</v>
@@ -28058,7 +28057,7 @@
         <v>1</v>
       </c>
       <c r="D184" s="104" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E184" s="105">
         <v>27500000</v>
@@ -28066,7 +28065,7 @@
       <c r="F184" s="106"/>
       <c r="G184" s="5"/>
       <c r="H184" s="108" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="I184" s="5"/>
       <c r="J184" s="5"/>
@@ -28096,15 +28095,15 @@
         <v>2</v>
       </c>
       <c r="D185" s="104" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E185" s="105">
         <v>38500000</v>
       </c>
       <c r="F185" s="106"/>
       <c r="G185" s="5"/>
-      <c r="H185" s="136" t="s">
-        <v>852</v>
+      <c r="H185" s="138" t="s">
+        <v>851</v>
       </c>
       <c r="I185" s="5"/>
       <c r="J185" s="5"/>
@@ -28134,14 +28133,14 @@
         <v>1</v>
       </c>
       <c r="D186" s="104" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E186" s="105">
         <v>27500000</v>
       </c>
       <c r="F186" s="106"/>
       <c r="G186" s="5"/>
-      <c r="H186" s="137"/>
+      <c r="H186" s="139"/>
       <c r="I186" s="5"/>
       <c r="J186" s="5"/>
       <c r="K186" s="5"/>
@@ -28170,7 +28169,7 @@
         <v>2</v>
       </c>
       <c r="D187" s="104" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E187" s="105">
         <v>38500000</v>
@@ -28206,7 +28205,7 @@
         <v>1</v>
       </c>
       <c r="D188" s="104" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E188" s="105">
         <v>27500000</v>
@@ -28242,7 +28241,7 @@
         <v>2</v>
       </c>
       <c r="D189" s="104" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E189" s="105">
         <v>38500000</v>
@@ -28272,13 +28271,13 @@
     <row r="190" spans="1:26" ht="12" customHeight="1">
       <c r="A190" s="5"/>
       <c r="B190" s="103" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C190" s="104">
         <v>1</v>
       </c>
       <c r="D190" s="104" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E190" s="105">
         <v>15000000</v>
@@ -28308,13 +28307,13 @@
     <row r="191" spans="1:26" ht="12" customHeight="1">
       <c r="A191" s="5"/>
       <c r="B191" s="103" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C191" s="104">
         <v>2</v>
       </c>
       <c r="D191" s="104" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E191" s="105">
         <v>38500000</v>
@@ -28344,13 +28343,13 @@
     <row r="192" spans="1:26" ht="12" customHeight="1">
       <c r="A192" s="5"/>
       <c r="B192" s="103" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C192" s="104">
         <v>3</v>
       </c>
       <c r="D192" s="104" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E192" s="105">
         <v>38500000</v>
@@ -28380,13 +28379,13 @@
     <row r="193" spans="1:26" ht="12" customHeight="1">
       <c r="A193" s="5"/>
       <c r="B193" s="103" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C193" s="104">
         <v>4</v>
       </c>
       <c r="D193" s="104" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E193" s="105">
         <v>38500000</v>
@@ -28416,13 +28415,13 @@
     <row r="194" spans="1:26" ht="12" customHeight="1">
       <c r="A194" s="5"/>
       <c r="B194" s="103" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C194" s="104">
         <v>1</v>
       </c>
       <c r="D194" s="104" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E194" s="105">
         <v>27500000</v>
@@ -28452,13 +28451,13 @@
     <row r="195" spans="1:26" ht="12" customHeight="1">
       <c r="A195" s="5"/>
       <c r="B195" s="103" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C195" s="104">
         <v>2</v>
       </c>
       <c r="D195" s="104" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E195" s="105"/>
       <c r="F195" s="106">
@@ -28488,13 +28487,13 @@
     <row r="196" spans="1:26" ht="12" customHeight="1">
       <c r="A196" s="5"/>
       <c r="B196" s="103" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C196" s="104">
         <v>1</v>
       </c>
       <c r="D196" s="104" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="E196" s="105"/>
       <c r="F196" s="106">
@@ -28524,13 +28523,13 @@
     <row r="197" spans="1:26" ht="12" customHeight="1">
       <c r="A197" s="5"/>
       <c r="B197" s="103" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C197" s="104">
         <v>2</v>
       </c>
       <c r="D197" s="104" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E197" s="105"/>
       <c r="F197" s="106">
@@ -28560,13 +28559,13 @@
     <row r="198" spans="1:26" ht="12" customHeight="1">
       <c r="A198" s="5"/>
       <c r="B198" s="103" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C198" s="104">
         <v>3</v>
       </c>
       <c r="D198" s="104" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E198" s="105"/>
       <c r="F198" s="106">
@@ -28596,13 +28595,13 @@
     <row r="199" spans="1:26" ht="12" customHeight="1">
       <c r="A199" s="5"/>
       <c r="B199" s="103" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C199" s="104">
         <v>4</v>
       </c>
       <c r="D199" s="104" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E199" s="105"/>
       <c r="F199" s="106">
@@ -28632,13 +28631,13 @@
     <row r="200" spans="1:26" ht="12" customHeight="1">
       <c r="A200" s="5"/>
       <c r="B200" s="103" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C200" s="104">
         <v>1</v>
       </c>
       <c r="D200" s="104" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E200" s="105">
         <v>20500000</v>
@@ -28668,13 +28667,13 @@
     <row r="201" spans="1:26" ht="12" customHeight="1">
       <c r="A201" s="5"/>
       <c r="B201" s="103" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C201" s="104">
         <v>2</v>
       </c>
       <c r="D201" s="104" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E201" s="105"/>
       <c r="F201" s="106">
@@ -28704,13 +28703,13 @@
     <row r="202" spans="1:26" ht="12" customHeight="1">
       <c r="A202" s="5"/>
       <c r="B202" s="103" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C202" s="104">
         <v>1</v>
       </c>
       <c r="D202" s="104" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="E202" s="105">
         <v>15000000</v>
@@ -28740,13 +28739,13 @@
     <row r="203" spans="1:26" ht="12" customHeight="1">
       <c r="A203" s="5"/>
       <c r="B203" s="109" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C203" s="110">
         <v>2</v>
       </c>
       <c r="D203" s="110" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E203" s="111">
         <v>38500000</v>
@@ -28832,7 +28831,7 @@
     <row r="206" spans="1:26" ht="12" customHeight="1">
       <c r="A206" s="5"/>
       <c r="B206" s="94" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C206" s="5"/>
       <c r="D206" s="5"/>
@@ -28890,19 +28889,19 @@
     <row r="208" spans="1:26" ht="12" customHeight="1">
       <c r="A208" s="5"/>
       <c r="B208" s="113" t="s">
+        <v>821</v>
+      </c>
+      <c r="C208" s="114" t="s">
         <v>822</v>
       </c>
-      <c r="C208" s="114" t="s">
+      <c r="D208" s="114" t="s">
         <v>823</v>
       </c>
-      <c r="D208" s="114" t="s">
+      <c r="E208" s="114" t="s">
         <v>824</v>
       </c>
-      <c r="E208" s="114" t="s">
+      <c r="F208" s="115" t="s">
         <v>825</v>
-      </c>
-      <c r="F208" s="115" t="s">
-        <v>826</v>
       </c>
       <c r="G208" s="5"/>
       <c r="H208" s="5"/>
@@ -28928,13 +28927,13 @@
     <row r="209" spans="1:26" ht="12" customHeight="1">
       <c r="A209" s="5"/>
       <c r="B209" s="116" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C209" s="100">
         <v>1</v>
       </c>
       <c r="D209" s="100" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E209" s="101">
         <v>7500000</v>
@@ -28964,13 +28963,13 @@
     <row r="210" spans="1:26" ht="12" customHeight="1">
       <c r="A210" s="5"/>
       <c r="B210" s="117" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C210" s="104">
         <v>2</v>
       </c>
       <c r="D210" s="104" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E210" s="105">
         <v>19000000</v>
@@ -29000,13 +28999,13 @@
     <row r="211" spans="1:26" ht="12" customHeight="1">
       <c r="A211" s="5"/>
       <c r="B211" s="117" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C211" s="104">
         <v>3</v>
       </c>
       <c r="D211" s="104" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E211" s="105">
         <v>19000000</v>
@@ -29036,13 +29035,13 @@
     <row r="212" spans="1:26" ht="12" customHeight="1">
       <c r="A212" s="5"/>
       <c r="B212" s="117" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C212" s="104">
         <v>1</v>
       </c>
       <c r="D212" s="104" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E212" s="105">
         <v>36500000</v>
@@ -29072,13 +29071,13 @@
     <row r="213" spans="1:26" ht="12" customHeight="1">
       <c r="A213" s="5"/>
       <c r="B213" s="117" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C213" s="104">
         <v>2</v>
       </c>
       <c r="D213" s="104" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E213" s="105">
         <v>27500000</v>
@@ -29114,7 +29113,7 @@
         <v>1</v>
       </c>
       <c r="D214" s="104" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E214" s="105">
         <v>15000000</v>
@@ -29150,7 +29149,7 @@
         <v>2</v>
       </c>
       <c r="D215" s="104" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E215" s="105">
         <v>15000000</v>
@@ -29180,13 +29179,13 @@
     <row r="216" spans="1:26" ht="12" customHeight="1">
       <c r="A216" s="5"/>
       <c r="B216" s="117" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C216" s="104">
         <v>1</v>
       </c>
       <c r="D216" s="104" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E216" s="105">
         <v>15000000</v>
@@ -29216,13 +29215,13 @@
     <row r="217" spans="1:26" ht="12" customHeight="1">
       <c r="A217" s="5"/>
       <c r="B217" s="117" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C217" s="104">
         <v>2</v>
       </c>
       <c r="D217" s="104" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E217" s="105">
         <v>27500000</v>
@@ -29252,13 +29251,13 @@
     <row r="218" spans="1:26" ht="12" customHeight="1">
       <c r="A218" s="5"/>
       <c r="B218" s="117" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C218" s="104">
         <v>1</v>
       </c>
       <c r="D218" s="104" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="E218" s="105">
         <v>27500000</v>
@@ -29288,13 +29287,13 @@
     <row r="219" spans="1:26" ht="12" customHeight="1">
       <c r="A219" s="5"/>
       <c r="B219" s="117" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C219" s="104">
         <v>2</v>
       </c>
       <c r="D219" s="104" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E219" s="105">
         <v>38500000</v>
@@ -29330,7 +29329,7 @@
         <v>1</v>
       </c>
       <c r="D220" s="104" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E220" s="105">
         <v>15000000</v>
@@ -29360,13 +29359,13 @@
     <row r="221" spans="1:26" ht="12" customHeight="1">
       <c r="A221" s="5"/>
       <c r="B221" s="117" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C221" s="104">
         <v>2</v>
       </c>
       <c r="D221" s="104" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="E221" s="105">
         <v>38500000</v>
@@ -29396,13 +29395,13 @@
     <row r="222" spans="1:26" ht="12" customHeight="1">
       <c r="A222" s="5"/>
       <c r="B222" s="117" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C222" s="104">
         <v>3</v>
       </c>
       <c r="D222" s="104" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="E222" s="105">
         <v>38500000</v>
@@ -29432,13 +29431,13 @@
     <row r="223" spans="1:26" ht="12" customHeight="1">
       <c r="A223" s="5"/>
       <c r="B223" s="117" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C223" s="104">
         <v>4</v>
       </c>
       <c r="D223" s="104" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E223" s="105">
         <v>38500000</v>
@@ -29468,13 +29467,13 @@
     <row r="224" spans="1:26" ht="12" customHeight="1">
       <c r="A224" s="5"/>
       <c r="B224" s="117" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C224" s="104">
         <v>1</v>
       </c>
       <c r="D224" s="104" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E224" s="105">
         <v>27500000</v>
@@ -29504,16 +29503,16 @@
     <row r="225" spans="1:26" ht="12" customHeight="1">
       <c r="A225" s="5"/>
       <c r="B225" s="117" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C225" s="104">
         <v>2</v>
       </c>
       <c r="D225" s="104" t="s">
+        <v>893</v>
+      </c>
+      <c r="E225" s="105" t="s">
         <v>894</v>
-      </c>
-      <c r="E225" s="105" t="s">
-        <v>895</v>
       </c>
       <c r="F225" s="106">
         <v>150</v>
@@ -29542,16 +29541,16 @@
     <row r="226" spans="1:26" ht="12" customHeight="1">
       <c r="A226" s="5"/>
       <c r="B226" s="117" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C226" s="104">
         <v>1</v>
       </c>
       <c r="D226" s="104" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="E226" s="105" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="F226" s="106">
         <v>1000</v>
@@ -29580,16 +29579,16 @@
     <row r="227" spans="1:26" ht="12" customHeight="1">
       <c r="A227" s="5"/>
       <c r="B227" s="117" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C227" s="104">
         <v>2</v>
       </c>
       <c r="D227" s="104" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E227" s="105" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="F227" s="106">
         <v>1500</v>
@@ -29618,16 +29617,16 @@
     <row r="228" spans="1:26" ht="12" customHeight="1">
       <c r="A228" s="5"/>
       <c r="B228" s="117" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C228" s="104">
         <v>3</v>
       </c>
       <c r="D228" s="104" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="E228" s="105" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="F228" s="106">
         <v>1250</v>
@@ -29656,16 +29655,16 @@
     <row r="229" spans="1:26" ht="12" customHeight="1">
       <c r="A229" s="5"/>
       <c r="B229" s="117" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C229" s="104">
         <v>4</v>
       </c>
       <c r="D229" s="104" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="E229" s="105" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="F229" s="106">
         <v>1250</v>
@@ -29694,13 +29693,13 @@
     <row r="230" spans="1:26" ht="12" customHeight="1">
       <c r="A230" s="5"/>
       <c r="B230" s="117" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C230" s="104">
         <v>1</v>
       </c>
       <c r="D230" s="104" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="E230" s="105">
         <v>20500000</v>
@@ -29730,16 +29729,16 @@
     <row r="231" spans="1:26" ht="12" customHeight="1">
       <c r="A231" s="5"/>
       <c r="B231" s="117" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C231" s="104">
         <v>2</v>
       </c>
       <c r="D231" s="104" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="E231" s="105" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="F231" s="106">
         <v>750</v>
@@ -29768,13 +29767,13 @@
     <row r="232" spans="1:26" ht="12" customHeight="1">
       <c r="A232" s="5"/>
       <c r="B232" s="117" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C232" s="104">
         <v>1</v>
       </c>
       <c r="D232" s="104" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="E232" s="105">
         <v>15000000</v>
@@ -29804,13 +29803,13 @@
     <row r="233" spans="1:26" ht="12" customHeight="1">
       <c r="A233" s="5"/>
       <c r="B233" s="118" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C233" s="110">
         <v>2</v>
       </c>
       <c r="D233" s="110" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="E233" s="111">
         <v>38500000</v>
@@ -29924,7 +29923,7 @@
     <row r="237" spans="1:26" ht="12" customHeight="1">
       <c r="A237" s="5"/>
       <c r="B237" s="64" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C237" s="5"/>
       <c r="D237" s="5"/>
@@ -29982,14 +29981,14 @@
     <row r="239" spans="1:26" ht="12" customHeight="1">
       <c r="A239" s="5"/>
       <c r="B239" s="75" t="s">
+        <v>651</v>
+      </c>
+      <c r="C239" s="76" t="s">
         <v>652</v>
-      </c>
-      <c r="C239" s="76" t="s">
-        <v>653</v>
       </c>
       <c r="D239" s="5"/>
       <c r="E239" s="5" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F239" s="5"/>
       <c r="G239" s="5"/>
@@ -30016,10 +30015,10 @@
     <row r="240" spans="1:26" ht="12" customHeight="1">
       <c r="A240" s="5"/>
       <c r="B240" s="37" t="s">
+        <v>906</v>
+      </c>
+      <c r="C240" s="119" t="s">
         <v>907</v>
-      </c>
-      <c r="C240" s="119" t="s">
-        <v>908</v>
       </c>
       <c r="D240" s="5"/>
       <c r="E240" s="5"/>
@@ -30048,14 +30047,14 @@
     <row r="241" spans="1:26" ht="12" customHeight="1">
       <c r="A241" s="5"/>
       <c r="B241" s="37" t="s">
+        <v>908</v>
+      </c>
+      <c r="C241" s="119" t="s">
         <v>909</v>
-      </c>
-      <c r="C241" s="119" t="s">
-        <v>910</v>
       </c>
       <c r="D241" s="5"/>
       <c r="E241" s="5" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="F241" s="5"/>
       <c r="G241" s="5"/>
@@ -30082,14 +30081,14 @@
     <row r="242" spans="1:26" ht="12" customHeight="1">
       <c r="A242" s="5"/>
       <c r="B242" s="120" t="s">
+        <v>911</v>
+      </c>
+      <c r="C242" s="121" t="s">
         <v>912</v>
-      </c>
-      <c r="C242" s="121" t="s">
-        <v>913</v>
       </c>
       <c r="D242" s="5"/>
       <c r="E242" s="5" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="F242" s="5"/>
       <c r="G242" s="5"/>
@@ -30147,7 +30146,7 @@
       <c r="C244" s="5"/>
       <c r="D244" s="5"/>
       <c r="E244" s="5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F244" s="5"/>
       <c r="G244" s="5"/>
@@ -30205,7 +30204,7 @@
       <c r="C246" s="5"/>
       <c r="D246" s="5"/>
       <c r="E246" s="5" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="F246" s="5"/>
       <c r="G246" s="5"/>
@@ -30263,7 +30262,7 @@
       <c r="C248" s="5"/>
       <c r="D248" s="5"/>
       <c r="E248" s="5" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="F248" s="5"/>
       <c r="G248" s="5"/>
@@ -30293,7 +30292,7 @@
       <c r="C249" s="5"/>
       <c r="D249" s="5"/>
       <c r="E249" s="5" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="F249" s="5"/>
       <c r="G249" s="5"/>
@@ -51381,7 +51380,7 @@
         <v>12</v>
       </c>
       <c r="G3" s="122" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="14.25" customHeight="1">
@@ -51389,7 +51388,7 @@
         <v>31</v>
       </c>
       <c r="G4" s="122" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="14.25" customHeight="1">
@@ -51397,7 +51396,7 @@
         <v>116</v>
       </c>
       <c r="G5" s="122" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="14.25" customHeight="1">
@@ -51405,7 +51404,7 @@
         <v>28</v>
       </c>
       <c r="G6" s="122" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="14.25" customHeight="1">
@@ -51413,7 +51412,7 @@
         <v>60</v>
       </c>
       <c r="G7" s="122" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="14.25" customHeight="1">
